--- a/ofc/estimates/Finalized valuations/indrayani mandir/final for 1200000.xlsx
+++ b/ofc/estimates/Finalized valuations/indrayani mandir/final for 1200000.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="final" sheetId="3" r:id="rId1"/>
@@ -13,10 +13,11 @@
     <sheet name="with plastic felt" sheetId="6" r:id="rId4"/>
     <sheet name="with centre wood" sheetId="7" r:id="rId5"/>
     <sheet name="copper roof" sheetId="8" r:id="rId6"/>
+    <sheet name="with brick" sheetId="9" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
     <definedName name="description_103">[1]Abstract!$B$16</definedName>
@@ -24,6 +25,7 @@
     <definedName name="description_124" localSheetId="0">#REF!</definedName>
     <definedName name="description_124" localSheetId="1">#REF!</definedName>
     <definedName name="description_124" localSheetId="2">#REF!</definedName>
+    <definedName name="description_124" localSheetId="6">#REF!</definedName>
     <definedName name="description_124" localSheetId="4">#REF!</definedName>
     <definedName name="description_124" localSheetId="3">#REF!</definedName>
     <definedName name="description_124">#REF!</definedName>
@@ -38,17 +40,151 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">final!$A$1:$K$272</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">quotation!$A$6:$K$246</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'quotation (2)'!$A$6:$K$52</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'with brick'!$A$1:$K$174</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'with centre wood'!$A$6:$K$81</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'with plastic felt'!$A$6:$K$80</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="5">'copper roof'!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">final!$1:$8</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="6">'with brick'!$1:$8</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="D60" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+killa thokna lai bich bich maa rakhne kath baala</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D62" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+edge ko wood</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="D60" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+killa thokna lai bich bich maa rakhne kath baala</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D62" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+edge ko wood</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C145" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+at top also</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="149">
   <si>
     <t>Government of Nepal</t>
   </si>
@@ -514,6 +650,9 @@
   <si>
     <t>Location:- Shankharapur 9</t>
   </si>
+  <si>
+    <t>-deduction for window</t>
+  </si>
 </sst>
 </file>
 
@@ -524,7 +663,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -638,6 +777,35 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -707,7 +875,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -890,11 +1058,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -908,28 +1092,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1385,8 +1554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S272"/>
   <sheetViews>
-    <sheetView topLeftCell="A250" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="A267" sqref="A267:XFD272"/>
+    <sheetView topLeftCell="A137" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62:XFD149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1406,113 +1575,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
     </row>
     <row r="5" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
     </row>
     <row r="6" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="77" t="s">
+      <c r="H6" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
     </row>
     <row r="7" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="84" t="s">
+      <c r="A7" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="84"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="77" t="s">
+      <c r="H7" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
-      <c r="K7" s="77"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
     </row>
     <row r="8" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
@@ -7341,11 +7510,11 @@
       <c r="B267" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="C267" s="82">
+      <c r="C267" s="76">
         <f>J265</f>
         <v>1886794.504041455</v>
       </c>
-      <c r="D267" s="83"/>
+      <c r="D267" s="77"/>
       <c r="E267" s="33">
         <v>100</v>
       </c>
@@ -7360,21 +7529,21 @@
       <c r="B268" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="C268" s="85">
+      <c r="C268" s="80">
         <v>2250000</v>
       </c>
-      <c r="D268" s="86"/>
+      <c r="D268" s="81"/>
       <c r="E268" s="33"/>
     </row>
     <row r="269" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B269" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="C269" s="85">
+      <c r="C269" s="80">
         <f>C268-C271-C272</f>
         <v>2137500</v>
       </c>
-      <c r="D269" s="86"/>
+      <c r="D269" s="81"/>
       <c r="E269" s="33">
         <f>C269/C267*100</f>
         <v>113.28737684053785</v>
@@ -7384,11 +7553,11 @@
       <c r="B270" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="C270" s="87">
+      <c r="C270" s="82">
         <f>C267-C269</f>
         <v>-250705.49595854501</v>
       </c>
-      <c r="D270" s="87"/>
+      <c r="D270" s="82"/>
       <c r="E270" s="33">
         <f>100-E269</f>
         <v>-13.287376840537846</v>
@@ -7398,11 +7567,11 @@
       <c r="B271" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="C271" s="82">
+      <c r="C271" s="76">
         <f>C268*0.03</f>
         <v>67500</v>
       </c>
-      <c r="D271" s="83"/>
+      <c r="D271" s="77"/>
       <c r="E271" s="33">
         <v>3</v>
       </c>
@@ -7411,17 +7580,24 @@
       <c r="B272" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="C272" s="82">
+      <c r="C272" s="76">
         <f>C268*0.02</f>
         <v>45000</v>
       </c>
-      <c r="D272" s="83"/>
+      <c r="D272" s="77"/>
       <c r="E272" s="33">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C271:D271"/>
     <mergeCell ref="C272:D272"/>
     <mergeCell ref="A7:F7"/>
@@ -7430,13 +7606,6 @@
     <mergeCell ref="C268:D268"/>
     <mergeCell ref="C269:D269"/>
     <mergeCell ref="C270:D270"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7475,113 +7644,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
     </row>
     <row r="5" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
     </row>
     <row r="6" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="77" t="s">
+      <c r="H6" s="79" t="s">
         <v>130</v>
       </c>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
     </row>
     <row r="7" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="84" t="s">
+      <c r="A7" s="78" t="s">
         <v>129</v>
       </c>
-      <c r="B7" s="84"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="77" t="s">
+      <c r="H7" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
-      <c r="K7" s="77"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
     </row>
     <row r="8" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
@@ -12879,12 +13048,12 @@
       <c r="B239" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="C239" s="87">
+      <c r="C239" s="82">
         <f>J237</f>
         <v>2108070.4791162037</v>
       </c>
-      <c r="D239" s="87"/>
-      <c r="E239" s="87"/>
+      <c r="D239" s="82"/>
+      <c r="E239" s="82"/>
       <c r="F239" s="65"/>
       <c r="G239" s="66"/>
       <c r="H239" s="65"/>
@@ -12896,21 +13065,21 @@
       <c r="B240" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="C240" s="89">
+      <c r="C240" s="88">
         <v>2250000</v>
       </c>
-      <c r="D240" s="89"/>
+      <c r="D240" s="88"/>
       <c r="E240" s="33"/>
     </row>
     <row r="241" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B241" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="C241" s="89">
+      <c r="C241" s="88">
         <f>C240-C243-C244</f>
         <v>2137500</v>
       </c>
-      <c r="D241" s="89"/>
+      <c r="D241" s="88"/>
       <c r="E241" s="33">
         <f>C241/C239*100</f>
         <v>101.39604065306843</v>
@@ -12920,11 +13089,11 @@
       <c r="B242" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="C242" s="87">
+      <c r="C242" s="82">
         <f>C239-C241</f>
         <v>-29429.520883796271</v>
       </c>
-      <c r="D242" s="87"/>
+      <c r="D242" s="82"/>
       <c r="E242" s="33">
         <f>100-E241</f>
         <v>-1.3960406530684253</v>
@@ -12934,11 +13103,11 @@
       <c r="B243" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="C243" s="87">
+      <c r="C243" s="82">
         <f>C240*0.03</f>
         <v>67500</v>
       </c>
-      <c r="D243" s="87"/>
+      <c r="D243" s="82"/>
       <c r="E243" s="33">
         <v>3</v>
       </c>
@@ -12947,11 +13116,11 @@
       <c r="B244" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="C244" s="87">
+      <c r="C244" s="82">
         <f>C240*0.02</f>
         <v>45000</v>
       </c>
-      <c r="D244" s="87"/>
+      <c r="D244" s="82"/>
       <c r="E244" s="33">
         <v>2</v>
       </c>
@@ -12960,26 +13129,36 @@
       <c r="B245" s="74" t="s">
         <v>126</v>
       </c>
-      <c r="C245" s="88">
+      <c r="C245" s="89">
         <f>C239*0.13</f>
         <v>274049.16228510649</v>
       </c>
-      <c r="D245" s="88"/>
-      <c r="E245" s="88"/>
+      <c r="D245" s="89"/>
+      <c r="E245" s="89"/>
     </row>
     <row r="246" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B246" s="74" t="s">
         <v>127</v>
       </c>
-      <c r="C246" s="88">
+      <c r="C246" s="89">
         <f>C239+C245</f>
         <v>2382119.6414013105</v>
       </c>
-      <c r="D246" s="88"/>
-      <c r="E246" s="88"/>
+      <c r="D246" s="89"/>
+      <c r="E246" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C243:D243"/>
+    <mergeCell ref="C244:D244"/>
+    <mergeCell ref="C245:E245"/>
+    <mergeCell ref="C246:E246"/>
+    <mergeCell ref="C239:E239"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C240:D240"/>
+    <mergeCell ref="C241:D241"/>
+    <mergeCell ref="C242:D242"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="A1:K1"/>
@@ -12987,16 +13166,6 @@
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A5:K5"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C240:D240"/>
-    <mergeCell ref="C241:D241"/>
-    <mergeCell ref="C242:D242"/>
-    <mergeCell ref="C243:D243"/>
-    <mergeCell ref="C244:D244"/>
-    <mergeCell ref="C245:E245"/>
-    <mergeCell ref="C246:E246"/>
-    <mergeCell ref="C239:E239"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13035,113 +13204,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
     </row>
     <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
     </row>
     <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
     </row>
     <row r="5" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
     </row>
     <row r="6" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="77" t="s">
+      <c r="H6" s="79" t="s">
         <v>130</v>
       </c>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
     </row>
     <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="84" t="s">
+      <c r="A7" s="78" t="s">
         <v>129</v>
       </c>
-      <c r="B7" s="84"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="77" t="s">
+      <c r="H7" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
-      <c r="K7" s="77"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
     </row>
     <row r="8" spans="1:19" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
@@ -13927,12 +14096,12 @@
       <c r="B45" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="C45" s="87">
+      <c r="C45" s="82">
         <f>J43</f>
         <v>735603.14628856385</v>
       </c>
-      <c r="D45" s="87"/>
-      <c r="E45" s="87"/>
+      <c r="D45" s="82"/>
+      <c r="E45" s="82"/>
       <c r="F45" s="65"/>
       <c r="G45" s="66"/>
       <c r="H45" s="65"/>
@@ -13944,21 +14113,21 @@
       <c r="B46" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="C46" s="89">
+      <c r="C46" s="88">
         <v>2250000</v>
       </c>
-      <c r="D46" s="89"/>
+      <c r="D46" s="88"/>
       <c r="E46" s="33"/>
     </row>
     <row r="47" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B47" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="C47" s="89">
+      <c r="C47" s="88">
         <f>C46-C49-C50</f>
         <v>2137500</v>
       </c>
-      <c r="D47" s="89"/>
+      <c r="D47" s="88"/>
       <c r="E47" s="33">
         <f>C47/C45*100</f>
         <v>290.57787623457193</v>
@@ -13968,11 +14137,11 @@
       <c r="B48" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="C48" s="87">
+      <c r="C48" s="82">
         <f>C45-C47</f>
         <v>-1401896.853711436</v>
       </c>
-      <c r="D48" s="87"/>
+      <c r="D48" s="82"/>
       <c r="E48" s="33">
         <f>100-E47</f>
         <v>-190.57787623457193</v>
@@ -13982,11 +14151,11 @@
       <c r="B49" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="C49" s="87">
+      <c r="C49" s="82">
         <f>C46*0.03</f>
         <v>67500</v>
       </c>
-      <c r="D49" s="87"/>
+      <c r="D49" s="82"/>
       <c r="E49" s="33">
         <v>3</v>
       </c>
@@ -13995,11 +14164,11 @@
       <c r="B50" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="C50" s="87">
+      <c r="C50" s="82">
         <f>C46*0.02</f>
         <v>45000</v>
       </c>
-      <c r="D50" s="87"/>
+      <c r="D50" s="82"/>
       <c r="E50" s="33">
         <v>2</v>
       </c>
@@ -14008,36 +14177,26 @@
       <c r="B51" s="74" t="s">
         <v>126</v>
       </c>
-      <c r="C51" s="88">
+      <c r="C51" s="89">
         <f>C45*0.13</f>
         <v>95628.409017513302</v>
       </c>
-      <c r="D51" s="88"/>
-      <c r="E51" s="88"/>
+      <c r="D51" s="89"/>
+      <c r="E51" s="89"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B52" s="74" t="s">
         <v>127</v>
       </c>
-      <c r="C52" s="88">
+      <c r="C52" s="89">
         <f>C45+C51</f>
         <v>831231.55530607712</v>
       </c>
-      <c r="D52" s="88"/>
-      <c r="E52" s="88"/>
+      <c r="D52" s="89"/>
+      <c r="E52" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="A1:K1"/>
@@ -14045,6 +14204,16 @@
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A5:K5"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="A7:F7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14083,113 +14252,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
     </row>
     <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
     </row>
     <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
     </row>
     <row r="5" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
     </row>
     <row r="6" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="77" t="s">
+      <c r="H6" s="79" t="s">
         <v>130</v>
       </c>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
     </row>
     <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="84" t="s">
+      <c r="A7" s="78" t="s">
         <v>129</v>
       </c>
-      <c r="B7" s="84"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="77" t="s">
+      <c r="H7" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
-      <c r="K7" s="77"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
     </row>
     <row r="8" spans="1:19" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
@@ -15584,12 +15753,12 @@
       <c r="B73" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="C73" s="87">
+      <c r="C73" s="82">
         <f>J71</f>
         <v>1103945.3112279128</v>
       </c>
-      <c r="D73" s="87"/>
-      <c r="E73" s="87"/>
+      <c r="D73" s="82"/>
+      <c r="E73" s="82"/>
       <c r="F73" s="65"/>
       <c r="G73" s="66"/>
       <c r="H73" s="65"/>
@@ -15601,21 +15770,21 @@
       <c r="B74" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="C74" s="89">
+      <c r="C74" s="88">
         <v>2250000</v>
       </c>
-      <c r="D74" s="89"/>
+      <c r="D74" s="88"/>
       <c r="E74" s="33"/>
     </row>
     <row r="75" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B75" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="C75" s="89">
+      <c r="C75" s="88">
         <f>C74-C77-C78</f>
         <v>2137500</v>
       </c>
-      <c r="D75" s="89"/>
+      <c r="D75" s="88"/>
       <c r="E75" s="33">
         <f>C75/C73*100</f>
         <v>193.62372195978347</v>
@@ -15625,11 +15794,11 @@
       <c r="B76" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="C76" s="87">
+      <c r="C76" s="82">
         <f>C73-C75</f>
         <v>-1033554.6887720872</v>
       </c>
-      <c r="D76" s="87"/>
+      <c r="D76" s="82"/>
       <c r="E76" s="33">
         <f>100-E75</f>
         <v>-93.623721959783467</v>
@@ -15639,11 +15808,11 @@
       <c r="B77" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="C77" s="87">
+      <c r="C77" s="82">
         <f>C74*0.03</f>
         <v>67500</v>
       </c>
-      <c r="D77" s="87"/>
+      <c r="D77" s="82"/>
       <c r="E77" s="33">
         <v>3</v>
       </c>
@@ -15652,11 +15821,11 @@
       <c r="B78" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="C78" s="87">
+      <c r="C78" s="82">
         <f>C74*0.02</f>
         <v>45000</v>
       </c>
-      <c r="D78" s="87"/>
+      <c r="D78" s="82"/>
       <c r="E78" s="33">
         <v>2</v>
       </c>
@@ -15665,26 +15834,36 @@
       <c r="B79" s="74" t="s">
         <v>126</v>
       </c>
-      <c r="C79" s="88">
+      <c r="C79" s="89">
         <f>C73*0.13</f>
         <v>143512.89045962866</v>
       </c>
-      <c r="D79" s="88"/>
-      <c r="E79" s="88"/>
+      <c r="D79" s="89"/>
+      <c r="E79" s="89"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B80" s="74" t="s">
         <v>127</v>
       </c>
-      <c r="C80" s="88">
+      <c r="C80" s="89">
         <f>C73+C79</f>
         <v>1247458.2016875413</v>
       </c>
-      <c r="D80" s="88"/>
-      <c r="E80" s="88"/>
+      <c r="D80" s="89"/>
+      <c r="E80" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="C80:E80"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C73:E73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:D76"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="A1:K1"/>
@@ -15692,16 +15871,6 @@
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A5:K5"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C73:E73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="C80:E80"/>
-    <mergeCell ref="A7:F7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15719,7 +15888,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S81"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView topLeftCell="A30" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
@@ -15740,113 +15909,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
     </row>
     <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
     </row>
     <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
     </row>
     <row r="5" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
     </row>
     <row r="6" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="77" t="s">
+      <c r="H6" s="79" t="s">
         <v>130</v>
       </c>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
     </row>
     <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="84" t="s">
+      <c r="A7" s="78" t="s">
         <v>129</v>
       </c>
-      <c r="B7" s="84"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="77" t="s">
+      <c r="H7" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
-      <c r="K7" s="77"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
     </row>
     <row r="8" spans="1:19" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
@@ -17266,12 +17435,12 @@
       <c r="B74" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="C74" s="87">
+      <c r="C74" s="82">
         <f>J72</f>
         <v>1192250.0184956598</v>
       </c>
-      <c r="D74" s="87"/>
-      <c r="E74" s="87"/>
+      <c r="D74" s="82"/>
+      <c r="E74" s="82"/>
       <c r="F74" s="65"/>
       <c r="G74" s="66"/>
       <c r="H74" s="65"/>
@@ -17283,21 +17452,21 @@
       <c r="B75" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="C75" s="89">
+      <c r="C75" s="88">
         <v>2250000</v>
       </c>
-      <c r="D75" s="89"/>
+      <c r="D75" s="88"/>
       <c r="E75" s="33"/>
     </row>
     <row r="76" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B76" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="C76" s="89">
+      <c r="C76" s="88">
         <f>C75-C78-C79</f>
         <v>2137500</v>
       </c>
-      <c r="D76" s="89"/>
+      <c r="D76" s="88"/>
       <c r="E76" s="33">
         <f>C76/C74*100</f>
         <v>179.2828657446384</v>
@@ -17307,11 +17476,11 @@
       <c r="B77" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="C77" s="87">
+      <c r="C77" s="82">
         <f>C74-C76</f>
         <v>-945249.98150434019</v>
       </c>
-      <c r="D77" s="87"/>
+      <c r="D77" s="82"/>
       <c r="E77" s="33">
         <f>100-E76</f>
         <v>-79.2828657446384</v>
@@ -17321,11 +17490,11 @@
       <c r="B78" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="C78" s="87">
+      <c r="C78" s="82">
         <f>C75*0.03</f>
         <v>67500</v>
       </c>
-      <c r="D78" s="87"/>
+      <c r="D78" s="82"/>
       <c r="E78" s="33">
         <v>3</v>
       </c>
@@ -17334,11 +17503,11 @@
       <c r="B79" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="C79" s="87">
+      <c r="C79" s="82">
         <f>C75*0.02</f>
         <v>45000</v>
       </c>
-      <c r="D79" s="87"/>
+      <c r="D79" s="82"/>
       <c r="E79" s="33">
         <v>2</v>
       </c>
@@ -17347,26 +17516,36 @@
       <c r="B80" s="74" t="s">
         <v>126</v>
       </c>
-      <c r="C80" s="88">
+      <c r="C80" s="89">
         <f>C74*0.13</f>
         <v>154992.50240443577</v>
       </c>
-      <c r="D80" s="88"/>
-      <c r="E80" s="88"/>
+      <c r="D80" s="89"/>
+      <c r="E80" s="89"/>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B81" s="74" t="s">
         <v>127</v>
       </c>
-      <c r="C81" s="88">
+      <c r="C81" s="89">
         <f>C74+C80</f>
         <v>1347242.5209000956</v>
       </c>
-      <c r="D81" s="88"/>
-      <c r="E81" s="88"/>
+      <c r="D81" s="89"/>
+      <c r="E81" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:E80"/>
+    <mergeCell ref="C81:E81"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C74:E74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:D77"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="A1:K1"/>
@@ -17374,16 +17553,6 @@
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A5:K5"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C74:E74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:E80"/>
-    <mergeCell ref="C81:E81"/>
-    <mergeCell ref="A7:F7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17398,11 +17567,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="99" zoomScaleNormal="99" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="J97" sqref="J97"/>
+    <sheetView topLeftCell="A72" zoomScale="99" zoomScaleNormal="99" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="J108" sqref="J108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17422,113 +17591,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
     </row>
     <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
     </row>
     <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
     </row>
     <row r="5" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
     </row>
     <row r="6" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="77" t="s">
+      <c r="H6" s="79" t="s">
         <v>130</v>
       </c>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
     </row>
     <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="84" t="s">
+      <c r="A7" s="78" t="s">
         <v>147</v>
       </c>
-      <c r="B7" s="84"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="77" t="s">
+      <c r="H7" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
-      <c r="K7" s="77"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
     </row>
     <row r="8" spans="1:19" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
@@ -19568,12 +19737,12 @@
       <c r="B102" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="C102" s="87">
+      <c r="C102" s="82">
         <f>J100</f>
         <v>1344202.2278966988</v>
       </c>
-      <c r="D102" s="87"/>
-      <c r="E102" s="87"/>
+      <c r="D102" s="82"/>
+      <c r="E102" s="82"/>
       <c r="F102" s="65"/>
       <c r="G102" s="66"/>
       <c r="H102" s="65"/>
@@ -19585,33 +19754,33 @@
       <c r="B103" s="74" t="s">
         <v>126</v>
       </c>
-      <c r="C103" s="88">
+      <c r="C103" s="89">
         <f>C102*0.13</f>
         <v>174746.28962657086</v>
       </c>
-      <c r="D103" s="88"/>
-      <c r="E103" s="88"/>
+      <c r="D103" s="89"/>
+      <c r="E103" s="89"/>
     </row>
     <row r="104" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B104" s="74" t="s">
         <v>127</v>
       </c>
-      <c r="C104" s="88">
+      <c r="C104" s="89">
         <f>C102+C103</f>
         <v>1518948.5175232696</v>
       </c>
-      <c r="D104" s="88"/>
-      <c r="E104" s="88"/>
+      <c r="D104" s="89"/>
+      <c r="E104" s="89"/>
     </row>
     <row r="106" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B106" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="C106" s="82">
+      <c r="C106" s="76">
         <f>J100</f>
         <v>1344202.2278966988</v>
       </c>
-      <c r="D106" s="83"/>
+      <c r="D106" s="77"/>
       <c r="E106" s="33">
         <v>100</v>
       </c>
@@ -19626,21 +19795,21 @@
       <c r="B107" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="C107" s="85">
+      <c r="C107" s="80">
         <v>1200000</v>
       </c>
-      <c r="D107" s="86"/>
+      <c r="D107" s="81"/>
       <c r="E107" s="33"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B108" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="C108" s="85">
+      <c r="C108" s="80">
         <f>C107-C110-C111</f>
         <v>1140000</v>
       </c>
-      <c r="D108" s="86"/>
+      <c r="D108" s="81"/>
       <c r="E108" s="33">
         <f>C108/C106*100</f>
         <v>84.808667649939977</v>
@@ -19650,11 +19819,11 @@
       <c r="B109" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="C109" s="87">
+      <c r="C109" s="82">
         <f>C106-C108</f>
         <v>204202.22789669875</v>
       </c>
-      <c r="D109" s="87"/>
+      <c r="D109" s="82"/>
       <c r="E109" s="33">
         <f>100-E108</f>
         <v>15.191332350060023</v>
@@ -19664,11 +19833,11 @@
       <c r="B110" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="C110" s="82">
+      <c r="C110" s="76">
         <f>C107*0.03</f>
         <v>36000</v>
       </c>
-      <c r="D110" s="83"/>
+      <c r="D110" s="77"/>
       <c r="E110" s="33">
         <v>3</v>
       </c>
@@ -19677,17 +19846,28 @@
       <c r="B111" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="C111" s="82">
+      <c r="C111" s="76">
         <f>C107*0.02</f>
         <v>24000</v>
       </c>
-      <c r="D111" s="83"/>
+      <c r="D111" s="77"/>
       <c r="E111" s="33">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="C103:E103"/>
+    <mergeCell ref="C104:E104"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C102:E102"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="C107:D107"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="A1:K1"/>
@@ -19695,17 +19875,6 @@
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A5:K5"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C102:E102"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="C103:E103"/>
-    <mergeCell ref="C104:E104"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="C108:D108"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -19716,5 +19885,3736 @@
 &amp;RApproved By:
 </oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S174"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A152" zoomScale="99" zoomScaleNormal="99" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="G169" sqref="G169"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.44140625" style="70" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="3" max="3" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" customWidth="1"/>
+    <col min="7" max="7" width="8.5546875" style="71" customWidth="1"/>
+    <col min="8" max="8" width="5.33203125" style="71" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" style="71" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" style="71" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" customWidth="1"/>
+    <col min="14" max="14" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+    </row>
+    <row r="2" spans="1:19" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="85" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+    </row>
+    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="86" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+    </row>
+    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+    </row>
+    <row r="5" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A5" s="87" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+    </row>
+    <row r="6" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="79" t="s">
+        <v>130</v>
+      </c>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
+    </row>
+    <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="78" t="s">
+        <v>147</v>
+      </c>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
+    </row>
+    <row r="8" spans="1:19" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="12">
+        <v>32</v>
+      </c>
+      <c r="B9" s="72" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="16"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+    </row>
+    <row r="10" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="14">
+        <v>2</v>
+      </c>
+      <c r="D10" s="15">
+        <f>((15.667+16.25)/2)/3.281</f>
+        <v>4.8639134410240779</v>
+      </c>
+      <c r="E10" s="16">
+        <f>((10.75)/3.281)</f>
+        <v>3.2764401097226452</v>
+      </c>
+      <c r="F10" s="16"/>
+      <c r="G10" s="17">
+        <f t="shared" ref="G10" si="0">PRODUCT(C10:F10)</f>
+        <v>31.872642176780758</v>
+      </c>
+      <c r="H10" s="18"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="16"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+    </row>
+    <row r="11" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="25"/>
+      <c r="B11" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="26"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="27">
+        <f>0*SUM(G10:G10)</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="28">
+        <f>(325188.75/100)</f>
+        <v>3251.8874999999998</v>
+      </c>
+      <c r="J11" s="29">
+        <f>G11*I11</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="30"/>
+    </row>
+    <row r="12" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="25"/>
+      <c r="B12" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="26"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="39">
+        <f>0.13*G11*((221748.75)/100)</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="30"/>
+    </row>
+    <row r="13" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="25"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="30"/>
+    </row>
+    <row r="14" spans="1:19" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12">
+        <v>33</v>
+      </c>
+      <c r="B14" s="72" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="26"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="30"/>
+    </row>
+    <row r="15" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="14">
+        <f>2*2</f>
+        <v>4</v>
+      </c>
+      <c r="D15" s="15">
+        <f>D10</f>
+        <v>4.8639134410240779</v>
+      </c>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="17">
+        <f>PRODUCT(C15:F15)</f>
+        <v>19.455653764096311</v>
+      </c>
+      <c r="H15" s="18"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="16"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+    </row>
+    <row r="16" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="25"/>
+      <c r="B16" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="26"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="27">
+        <f>0*SUM(G15:G15)</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="I16" s="28">
+        <v>1842.85</v>
+      </c>
+      <c r="J16" s="29">
+        <f>G16*I16</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="30"/>
+    </row>
+    <row r="17" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="25"/>
+      <c r="B17" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="26"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="39">
+        <f>0.13*G16*((164000)/100)</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="30"/>
+    </row>
+    <row r="18" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="25"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="30"/>
+    </row>
+    <row r="19" spans="1:19" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="25">
+        <v>34</v>
+      </c>
+      <c r="B19" s="72" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" s="26"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="30"/>
+    </row>
+    <row r="20" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="25"/>
+      <c r="B20" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="26">
+        <v>4</v>
+      </c>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17">
+        <f t="shared" ref="G20" si="1">PRODUCT(C20:F20)</f>
+        <v>4</v>
+      </c>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="30"/>
+    </row>
+    <row r="21" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="25"/>
+      <c r="B21" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="26"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="27">
+        <f>0*SUM(G20)</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="I21" s="28">
+        <v>279</v>
+      </c>
+      <c r="J21" s="29">
+        <f>G21*I21</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="30"/>
+    </row>
+    <row r="22" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="25"/>
+      <c r="B22" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="26"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="39">
+        <f>0.13*J21</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="30"/>
+    </row>
+    <row r="23" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="25"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="30"/>
+    </row>
+    <row r="24" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="12">
+        <v>1</v>
+      </c>
+      <c r="B24" s="72" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="16"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="21"/>
+    </row>
+    <row r="25" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="12"/>
+      <c r="B25" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="14">
+        <v>2</v>
+      </c>
+      <c r="D25" s="15">
+        <f>(((15.667+16.25)/2)/3.281)+0.2</f>
+        <v>5.063913441024078</v>
+      </c>
+      <c r="E25" s="16">
+        <f>((10.75)/3.281)</f>
+        <v>3.2764401097226452</v>
+      </c>
+      <c r="F25" s="16"/>
+      <c r="G25" s="17">
+        <f t="shared" ref="G25:G28" si="2">PRODUCT(C25:F25)</f>
+        <v>33.183218220669815</v>
+      </c>
+      <c r="H25" s="18"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="16"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="21"/>
+    </row>
+    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="12"/>
+      <c r="B26" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C26" s="14">
+        <f>C60</f>
+        <v>5</v>
+      </c>
+      <c r="D26" s="15">
+        <f>D60</f>
+        <v>4.8765620237732392</v>
+      </c>
+      <c r="E26" s="16">
+        <f>(E60*2+F60)</f>
+        <v>0.15239256324291373</v>
+      </c>
+      <c r="F26" s="16"/>
+      <c r="G26" s="17">
+        <f t="shared" si="2"/>
+        <v>3.7157589330792735</v>
+      </c>
+      <c r="H26" s="18"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="16"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="21"/>
+      <c r="S26" s="21"/>
+    </row>
+    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="12"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="14">
+        <f t="shared" ref="C27:D28" si="3">C61</f>
+        <v>5</v>
+      </c>
+      <c r="D27" s="15">
+        <f t="shared" si="3"/>
+        <v>4.7241694605303257</v>
+      </c>
+      <c r="E27" s="16">
+        <f>(E61*2+F61)</f>
+        <v>0.15239256324291373</v>
+      </c>
+      <c r="F27" s="16"/>
+      <c r="G27" s="17">
+        <f t="shared" si="2"/>
+        <v>3.5996414664205467</v>
+      </c>
+      <c r="H27" s="18"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="16"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="21"/>
+      <c r="S27" s="21"/>
+    </row>
+    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="12"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="14">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="D28" s="15">
+        <f t="shared" si="3"/>
+        <v>9.6007314843035658</v>
+      </c>
+      <c r="E28" s="16">
+        <f>(E62*2+F62)</f>
+        <v>0.25398760540485621</v>
+      </c>
+      <c r="F28" s="16"/>
+      <c r="G28" s="17">
+        <f t="shared" si="2"/>
+        <v>4.8769335996665468</v>
+      </c>
+      <c r="H28" s="18"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="16"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="21"/>
+      <c r="S28" s="21"/>
+    </row>
+    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="25"/>
+      <c r="B29" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="26"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="27">
+        <f>SUM(G25:G28)</f>
+        <v>45.37555221983618</v>
+      </c>
+      <c r="H29" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I29" s="28">
+        <f>148924.05/10</f>
+        <v>14892.404999999999</v>
+      </c>
+      <c r="J29" s="29">
+        <f>G29*I29</f>
+        <v>675751.10075644939</v>
+      </c>
+      <c r="K29" s="30"/>
+    </row>
+    <row r="30" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="25"/>
+      <c r="B30" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30" s="26"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="29">
+        <f>0.13*G29*(138385.2)/10</f>
+        <v>81630.963297682159</v>
+      </c>
+      <c r="K30" s="30"/>
+    </row>
+    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="25"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="30"/>
+    </row>
+    <row r="32" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="25">
+        <v>2</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" s="26"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="30"/>
+    </row>
+    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="12"/>
+      <c r="B33" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" s="14">
+        <v>2</v>
+      </c>
+      <c r="D33" s="16">
+        <f>((10.75)/3.281)</f>
+        <v>3.2764401097226452</v>
+      </c>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="17">
+        <f t="shared" ref="G33" si="4">PRODUCT(C33:F33)</f>
+        <v>6.5528802194452904</v>
+      </c>
+      <c r="H33" s="18"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="16"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="21"/>
+      <c r="S33" s="21"/>
+    </row>
+    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="25"/>
+      <c r="B34" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="26"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="27">
+        <f>SUM(G33:G33)</f>
+        <v>6.5528802194452904</v>
+      </c>
+      <c r="H34" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="I34" s="28">
+        <f>2563.07/1.15</f>
+        <v>2228.7565217391307</v>
+      </c>
+      <c r="J34" s="29">
+        <f>G34*I34</f>
+        <v>14604.774525264036</v>
+      </c>
+      <c r="K34" s="30"/>
+    </row>
+    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="25"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="30"/>
+    </row>
+    <row r="36" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="25">
+        <v>3</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="C36" s="26"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="45"/>
+      <c r="I36" s="45"/>
+      <c r="J36" s="39"/>
+      <c r="K36" s="30"/>
+    </row>
+    <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="12"/>
+      <c r="B37" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C37" s="14">
+        <v>4</v>
+      </c>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="17">
+        <f t="shared" ref="G37" si="5">PRODUCT(C37:F37)</f>
+        <v>4</v>
+      </c>
+      <c r="H37" s="18"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="16"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="21"/>
+      <c r="S37" s="21"/>
+    </row>
+    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="25"/>
+      <c r="B38" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="26"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="27">
+        <f>SUM(G37:G37)</f>
+        <v>4</v>
+      </c>
+      <c r="H38" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="I38" s="28">
+        <f>6733.54/1.15</f>
+        <v>5855.2521739130443</v>
+      </c>
+      <c r="J38" s="29">
+        <f>G38*I38</f>
+        <v>23421.008695652177</v>
+      </c>
+      <c r="K38" s="30"/>
+    </row>
+    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="25"/>
+      <c r="B39" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="C39" s="26"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="29">
+        <f>0.13*G38*(3024)</f>
+        <v>1572.48</v>
+      </c>
+      <c r="K39" s="30"/>
+    </row>
+    <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="25"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="39"/>
+      <c r="K40" s="30"/>
+    </row>
+    <row r="41" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A41" s="25">
+        <v>4</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="C41" s="26"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="45"/>
+      <c r="J41" s="39"/>
+      <c r="K41" s="30"/>
+    </row>
+    <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="12"/>
+      <c r="B42" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C42" s="14">
+        <f>5+5+2+2</f>
+        <v>14</v>
+      </c>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="17">
+        <f t="shared" ref="G42" si="6">PRODUCT(C42:F42)</f>
+        <v>14</v>
+      </c>
+      <c r="H42" s="18"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="16"/>
+      <c r="M42" s="21"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="21"/>
+      <c r="S42" s="21"/>
+    </row>
+    <row r="43" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="25"/>
+      <c r="B43" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" s="26"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="27">
+        <f>SUM(G42:G42)</f>
+        <v>14</v>
+      </c>
+      <c r="H43" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="I43" s="28">
+        <f>1722.99/1.15</f>
+        <v>1498.2521739130436</v>
+      </c>
+      <c r="J43" s="29">
+        <f>G43*I43</f>
+        <v>20975.53043478261</v>
+      </c>
+      <c r="K43" s="30"/>
+    </row>
+    <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="25"/>
+      <c r="B44" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="C44" s="26"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="29">
+        <f>0.13*G43*(567)</f>
+        <v>1031.94</v>
+      </c>
+      <c r="K44" s="30"/>
+    </row>
+    <row r="45" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="25"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="45"/>
+      <c r="I45" s="45"/>
+      <c r="J45" s="39"/>
+      <c r="K45" s="30"/>
+    </row>
+    <row r="46" spans="1:19" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A46" s="25">
+        <v>5</v>
+      </c>
+      <c r="B46" s="60" t="s">
+        <v>138</v>
+      </c>
+      <c r="C46" s="32">
+        <v>1</v>
+      </c>
+      <c r="D46" s="33">
+        <v>3.5</v>
+      </c>
+      <c r="E46" s="33"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="33">
+        <f>PRODUCT(C46:F46)</f>
+        <v>3.5</v>
+      </c>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="34"/>
+    </row>
+    <row r="47" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="25"/>
+      <c r="B47" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" s="26"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="27">
+        <f>SUM(G46:G46)</f>
+        <v>3.5</v>
+      </c>
+      <c r="H47" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="I47" s="27">
+        <f>4289.73/1.15</f>
+        <v>3730.2</v>
+      </c>
+      <c r="J47" s="29">
+        <f>G46*I47</f>
+        <v>13055.699999999999</v>
+      </c>
+      <c r="K47" s="30"/>
+    </row>
+    <row r="48" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="25"/>
+      <c r="B48" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="C48" s="26"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="29">
+        <f>0.13*G47*(7326/5)</f>
+        <v>666.66600000000005</v>
+      </c>
+      <c r="K48" s="30"/>
+    </row>
+    <row r="49" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="25"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="45"/>
+      <c r="H49" s="45"/>
+      <c r="I49" s="45"/>
+      <c r="J49" s="39"/>
+      <c r="K49" s="30"/>
+    </row>
+    <row r="50" spans="1:19" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A50" s="25">
+        <v>6</v>
+      </c>
+      <c r="B50" s="60" t="s">
+        <v>139</v>
+      </c>
+      <c r="C50" s="32">
+        <v>2</v>
+      </c>
+      <c r="D50" s="33">
+        <v>3.5</v>
+      </c>
+      <c r="E50" s="33"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="33">
+        <f>PRODUCT(C50:F50)</f>
+        <v>7</v>
+      </c>
+      <c r="H50" s="25"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="25"/>
+      <c r="K50" s="34"/>
+    </row>
+    <row r="51" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="25"/>
+      <c r="B51" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51" s="26"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="27">
+        <f>SUM(G50:G50)</f>
+        <v>7</v>
+      </c>
+      <c r="H51" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="I51" s="27">
+        <f>4289.73/1.15</f>
+        <v>3730.2</v>
+      </c>
+      <c r="J51" s="29">
+        <f>G50*I51</f>
+        <v>26111.399999999998</v>
+      </c>
+      <c r="K51" s="30"/>
+    </row>
+    <row r="52" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="25"/>
+      <c r="B52" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="C52" s="26"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="29">
+        <f>0.13*G51*(7326/5)</f>
+        <v>1333.3320000000001</v>
+      </c>
+      <c r="K52" s="30"/>
+    </row>
+    <row r="53" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="25"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="45"/>
+      <c r="H53" s="45"/>
+      <c r="I53" s="45"/>
+      <c r="J53" s="39"/>
+      <c r="K53" s="30"/>
+    </row>
+    <row r="54" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A54" s="25">
+        <v>7</v>
+      </c>
+      <c r="B54" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="C54" s="26"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="45"/>
+      <c r="I54" s="45"/>
+      <c r="J54" s="39"/>
+      <c r="K54" s="30"/>
+    </row>
+    <row r="55" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="12"/>
+      <c r="B55" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C55" s="14">
+        <v>2</v>
+      </c>
+      <c r="D55" s="15">
+        <f>(((15.667+16.25)/2)/3.281)+0.2</f>
+        <v>5.063913441024078</v>
+      </c>
+      <c r="E55" s="16">
+        <f>((10.75)/3.281)</f>
+        <v>3.2764401097226452</v>
+      </c>
+      <c r="F55" s="16"/>
+      <c r="G55" s="17">
+        <f t="shared" ref="G55" si="7">PRODUCT(C55:F55)</f>
+        <v>33.183218220669815</v>
+      </c>
+      <c r="H55" s="18"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="20"/>
+      <c r="K55" s="16"/>
+      <c r="M55" s="21"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="21"/>
+      <c r="S55" s="21"/>
+    </row>
+    <row r="56" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="25"/>
+      <c r="B56" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C56" s="26"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="27">
+        <f>SUM(G55:G55)</f>
+        <v>33.183218220669815</v>
+      </c>
+      <c r="H56" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I56" s="28">
+        <f>685.98/1.15</f>
+        <v>596.50434782608704</v>
+      </c>
+      <c r="J56" s="29">
+        <f>G56*I56</f>
+        <v>19793.933943491378</v>
+      </c>
+      <c r="K56" s="30"/>
+    </row>
+    <row r="57" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="25"/>
+      <c r="B57" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="C57" s="26"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="27"/>
+      <c r="I57" s="28"/>
+      <c r="J57" s="29">
+        <f>0.13*G56*(1397.55/10)</f>
+        <v>602.87768611586228</v>
+      </c>
+      <c r="K57" s="30"/>
+    </row>
+    <row r="58" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="25"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="27"/>
+      <c r="I58" s="28"/>
+      <c r="J58" s="29"/>
+      <c r="K58" s="30"/>
+    </row>
+    <row r="59" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A59" s="25">
+        <v>8</v>
+      </c>
+      <c r="B59" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="C59" s="26"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="45"/>
+      <c r="H59" s="45"/>
+      <c r="I59" s="45"/>
+      <c r="J59" s="39"/>
+      <c r="K59" s="30"/>
+    </row>
+    <row r="60" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="12"/>
+      <c r="B60" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C60" s="14">
+        <f>TRUNC((10.75-1.5)/1.75,0)</f>
+        <v>5</v>
+      </c>
+      <c r="D60" s="15">
+        <f>(16)/3.281</f>
+        <v>4.8765620237732392</v>
+      </c>
+      <c r="E60" s="16">
+        <f>2/12/3.281</f>
+        <v>5.0797521080971242E-2</v>
+      </c>
+      <c r="F60" s="16">
+        <f>2/12/3.281</f>
+        <v>5.0797521080971242E-2</v>
+      </c>
+      <c r="G60" s="17">
+        <f t="shared" ref="G60:G62" si="8">PRODUCT(C60:F60)</f>
+        <v>6.2917114244967209E-2</v>
+      </c>
+      <c r="H60" s="18"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="20"/>
+      <c r="K60" s="16"/>
+      <c r="M60" s="21"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="21"/>
+      <c r="S60" s="21"/>
+    </row>
+    <row r="61" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="12"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="14">
+        <f>TRUNC((10.75-1.5)/1.75,0)</f>
+        <v>5</v>
+      </c>
+      <c r="D61" s="15">
+        <f>(15.5)/3.281</f>
+        <v>4.7241694605303257</v>
+      </c>
+      <c r="E61" s="16">
+        <f>2/12/3.281</f>
+        <v>5.0797521080971242E-2</v>
+      </c>
+      <c r="F61" s="16">
+        <f>2/12/3.281</f>
+        <v>5.0797521080971242E-2</v>
+      </c>
+      <c r="G61" s="17">
+        <f t="shared" si="8"/>
+        <v>6.0950954424811979E-2</v>
+      </c>
+      <c r="H61" s="18"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="20"/>
+      <c r="K61" s="16"/>
+      <c r="M61" s="21"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="21"/>
+      <c r="S61" s="21"/>
+    </row>
+    <row r="62" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="12"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="14">
+        <v>2</v>
+      </c>
+      <c r="D62" s="15">
+        <f>D60+D61</f>
+        <v>9.6007314843035658</v>
+      </c>
+      <c r="E62" s="16">
+        <f>3/12/3.281</f>
+        <v>7.6196281621456863E-2</v>
+      </c>
+      <c r="F62" s="16">
+        <f>4/12/3.281</f>
+        <v>0.10159504216194248</v>
+      </c>
+      <c r="G62" s="17">
+        <f t="shared" si="8"/>
+        <v>0.14864168240373504</v>
+      </c>
+      <c r="H62" s="18"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="20"/>
+      <c r="K62" s="16"/>
+      <c r="M62" s="21"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1"/>
+      <c r="R62" s="21"/>
+      <c r="S62" s="21"/>
+    </row>
+    <row r="63" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="25"/>
+      <c r="B63" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C63" s="26"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="27">
+        <f>SUM(G60:G62)</f>
+        <v>0.27250975107351422</v>
+      </c>
+      <c r="H63" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="I63" s="28">
+        <f>286497.45/1.15</f>
+        <v>249128.21739130438</v>
+      </c>
+      <c r="J63" s="29">
+        <f>G63*I63</f>
+        <v>67889.868506692699</v>
+      </c>
+      <c r="K63" s="30"/>
+    </row>
+    <row r="64" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="25"/>
+      <c r="B64" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="C64" s="26"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="27"/>
+      <c r="I64" s="28"/>
+      <c r="J64" s="29">
+        <f>0.13*G63*225887.77</f>
+        <v>8002.3605965226598</v>
+      </c>
+      <c r="K64" s="30"/>
+    </row>
+    <row r="65" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="25"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="26"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="27"/>
+      <c r="H65" s="27"/>
+      <c r="I65" s="28"/>
+      <c r="J65" s="29"/>
+      <c r="K65" s="30"/>
+    </row>
+    <row r="66" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A66" s="25">
+        <v>9</v>
+      </c>
+      <c r="B66" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="C66" s="26"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="45"/>
+      <c r="H66" s="45"/>
+      <c r="I66" s="45"/>
+      <c r="J66" s="39"/>
+      <c r="K66" s="30"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A67" s="25"/>
+      <c r="B67" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67" s="26">
+        <v>2</v>
+      </c>
+      <c r="D67" s="17">
+        <f>3.833/3.281</f>
+        <v>1.1682413898201769</v>
+      </c>
+      <c r="E67" s="17">
+        <f>0.1</f>
+        <v>0.1</v>
+      </c>
+      <c r="F67" s="17">
+        <v>0.125</v>
+      </c>
+      <c r="G67" s="17">
+        <f t="shared" ref="G67:G70" si="9">PRODUCT(C67:F67)</f>
+        <v>2.9206034745504424E-2</v>
+      </c>
+      <c r="H67" s="45"/>
+      <c r="I67" s="45"/>
+      <c r="J67" s="39"/>
+      <c r="K67" s="30"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A68" s="25"/>
+      <c r="B68" s="22"/>
+      <c r="C68" s="26">
+        <v>2</v>
+      </c>
+      <c r="D68" s="17">
+        <f>(7.75-0.333*2)/3.281</f>
+        <v>2.1590978360256017</v>
+      </c>
+      <c r="E68" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="F68" s="17">
+        <v>0.125</v>
+      </c>
+      <c r="G68" s="17">
+        <f t="shared" si="9"/>
+        <v>5.3977445900640048E-2</v>
+      </c>
+      <c r="H68" s="45"/>
+      <c r="I68" s="45"/>
+      <c r="J68" s="39"/>
+      <c r="K68" s="30"/>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A69" s="25"/>
+      <c r="B69" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="C69" s="26">
+        <v>2</v>
+      </c>
+      <c r="D69" s="17">
+        <f>3.5/3.281</f>
+        <v>1.0667479427003961</v>
+      </c>
+      <c r="E69" s="17">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="F69" s="17">
+        <v>0.125</v>
+      </c>
+      <c r="G69" s="17">
+        <f t="shared" si="9"/>
+        <v>2.0001523925632425E-2</v>
+      </c>
+      <c r="H69" s="45"/>
+      <c r="I69" s="45"/>
+      <c r="J69" s="39"/>
+      <c r="K69" s="30"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A70" s="25"/>
+      <c r="B70" s="22"/>
+      <c r="C70" s="26">
+        <v>2</v>
+      </c>
+      <c r="D70" s="17">
+        <f>4.5/3.281</f>
+        <v>1.3715330691862238</v>
+      </c>
+      <c r="E70" s="17">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="F70" s="17">
+        <v>0.125</v>
+      </c>
+      <c r="G70" s="17">
+        <f t="shared" si="9"/>
+        <v>2.5716245047241695E-2</v>
+      </c>
+      <c r="H70" s="45"/>
+      <c r="I70" s="45"/>
+      <c r="J70" s="39"/>
+      <c r="K70" s="30"/>
+    </row>
+    <row r="71" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="25"/>
+      <c r="B71" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C71" s="26"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="27">
+        <f>SUM(G67:G70)</f>
+        <v>0.12890124961901861</v>
+      </c>
+      <c r="H71" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="I71" s="28">
+        <f>353723.98/1.15</f>
+        <v>307586.06956521742</v>
+      </c>
+      <c r="J71" s="29">
+        <f>G71*I71</f>
+        <v>39648.228732358912</v>
+      </c>
+      <c r="K71" s="30"/>
+      <c r="M71">
+        <f>1.03*3.281</f>
+        <v>3.3794300000000002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="25"/>
+      <c r="B72" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="C72" s="26"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="27"/>
+      <c r="H72" s="27"/>
+      <c r="I72" s="28"/>
+      <c r="J72" s="29">
+        <f>0.13*G71*262808.07</f>
+        <v>4403.9175222851272</v>
+      </c>
+      <c r="K72" s="30"/>
+    </row>
+    <row r="73" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="25"/>
+      <c r="B73" s="22"/>
+      <c r="C73" s="26"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="27"/>
+      <c r="H73" s="27"/>
+      <c r="I73" s="28"/>
+      <c r="J73" s="29"/>
+      <c r="K73" s="30"/>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A74" s="25">
+        <v>10</v>
+      </c>
+      <c r="B74" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="C74" s="26"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="17"/>
+      <c r="G74" s="45"/>
+      <c r="H74" s="45"/>
+      <c r="I74" s="45"/>
+      <c r="J74" s="39"/>
+      <c r="K74" s="30"/>
+    </row>
+    <row r="75" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="25"/>
+      <c r="B75" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C75" s="26">
+        <v>1</v>
+      </c>
+      <c r="D75" s="17"/>
+      <c r="E75" s="17">
+        <f>3.833/3.281</f>
+        <v>1.1682413898201769</v>
+      </c>
+      <c r="F75" s="17">
+        <f>7.75/3.281</f>
+        <v>2.3620847302651629</v>
+      </c>
+      <c r="G75" s="17">
+        <f>PRODUCT(C75:F75)</f>
+        <v>2.7594851481579914</v>
+      </c>
+      <c r="H75" s="45"/>
+      <c r="I75" s="45"/>
+      <c r="J75" s="39"/>
+      <c r="K75" s="30"/>
+    </row>
+    <row r="76" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="25"/>
+      <c r="B76" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C76" s="26"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="27">
+        <f>SUM(G75:G75)</f>
+        <v>2.7594851481579914</v>
+      </c>
+      <c r="H76" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I76" s="28">
+        <f>46573/1.15</f>
+        <v>40498.260869565223</v>
+      </c>
+      <c r="J76" s="29">
+        <f>G76*I76</f>
+        <v>111754.34939579318</v>
+      </c>
+      <c r="K76" s="30"/>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A77" s="25"/>
+      <c r="B77" s="24"/>
+      <c r="C77" s="26"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="17"/>
+      <c r="G77" s="45"/>
+      <c r="H77" s="45"/>
+      <c r="I77" s="45"/>
+      <c r="J77" s="39"/>
+      <c r="K77" s="30"/>
+    </row>
+    <row r="78" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A78" s="25">
+        <v>11</v>
+      </c>
+      <c r="B78" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="C78" s="26"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="17"/>
+      <c r="G78" s="45"/>
+      <c r="H78" s="45"/>
+      <c r="I78" s="45"/>
+      <c r="J78" s="39"/>
+      <c r="K78" s="30"/>
+    </row>
+    <row r="79" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="25"/>
+      <c r="B79" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="C79" s="26">
+        <v>1</v>
+      </c>
+      <c r="D79" s="17"/>
+      <c r="E79" s="17">
+        <f>3.5/3.281</f>
+        <v>1.0667479427003961</v>
+      </c>
+      <c r="F79" s="17">
+        <f>4.5/3.281</f>
+        <v>1.3715330691862238</v>
+      </c>
+      <c r="G79" s="17">
+        <f>PRODUCT(C79:F79)</f>
+        <v>1.4630800798999641</v>
+      </c>
+      <c r="H79" s="45"/>
+      <c r="I79" s="45"/>
+      <c r="J79" s="39"/>
+      <c r="K79" s="30"/>
+    </row>
+    <row r="80" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="25"/>
+      <c r="B80" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C80" s="26"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="17"/>
+      <c r="G80" s="27">
+        <f>SUM(G79:G79)</f>
+        <v>1.4630800798999641</v>
+      </c>
+      <c r="H80" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I80" s="28">
+        <f>50828.44/1.15</f>
+        <v>44198.643478260878</v>
+      </c>
+      <c r="J80" s="29">
+        <f>G80*I80</f>
+        <v>64666.154831643951</v>
+      </c>
+      <c r="K80" s="30"/>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A81" s="25"/>
+      <c r="B81" s="24"/>
+      <c r="C81" s="26"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="17"/>
+      <c r="G81" s="45"/>
+      <c r="H81" s="45"/>
+      <c r="I81" s="45"/>
+      <c r="J81" s="39"/>
+      <c r="K81" s="30"/>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A82" s="12">
+        <v>12</v>
+      </c>
+      <c r="B82" s="54" t="s">
+        <v>145</v>
+      </c>
+      <c r="C82" s="14"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="16"/>
+      <c r="F82" s="16"/>
+      <c r="G82" s="19"/>
+      <c r="H82" s="18"/>
+      <c r="I82" s="19"/>
+      <c r="J82" s="37"/>
+      <c r="K82" s="16"/>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A83" s="12"/>
+      <c r="B83" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="C83" s="14">
+        <f>4*2</f>
+        <v>8</v>
+      </c>
+      <c r="D83" s="15">
+        <f>2.75/3.281</f>
+        <v>0.8381590978360256</v>
+      </c>
+      <c r="E83" s="16">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="F83" s="30"/>
+      <c r="G83" s="33">
+        <f>PRODUCT(C83:E83)</f>
+        <v>0.50289545870161534</v>
+      </c>
+      <c r="H83" s="18"/>
+      <c r="I83" s="19"/>
+      <c r="J83" s="37"/>
+      <c r="K83" s="16"/>
+      <c r="M83">
+        <f>4+4+3.5+3.5</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="25"/>
+      <c r="B84" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C84" s="32"/>
+      <c r="D84" s="33"/>
+      <c r="E84" s="33"/>
+      <c r="F84" s="33"/>
+      <c r="G84" s="37">
+        <f>SUM(G83:G83)</f>
+        <v>0.50289545870161534</v>
+      </c>
+      <c r="H84" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="I84" s="38">
+        <f>15743.5/1.15</f>
+        <v>13690.000000000002</v>
+      </c>
+      <c r="J84" s="39">
+        <f>G84*I84</f>
+        <v>6884.6388296251152</v>
+      </c>
+      <c r="K84" s="34"/>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A85" s="12"/>
+      <c r="B85" s="54"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="16"/>
+      <c r="F85" s="16"/>
+      <c r="G85" s="19"/>
+      <c r="H85" s="18"/>
+      <c r="I85" s="19"/>
+      <c r="J85" s="37"/>
+      <c r="K85" s="16"/>
+    </row>
+    <row r="86" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A86" s="25">
+        <v>13</v>
+      </c>
+      <c r="B86" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="C86" s="26"/>
+      <c r="D86" s="17"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="17"/>
+      <c r="G86" s="45"/>
+      <c r="H86" s="45"/>
+      <c r="I86" s="45"/>
+      <c r="J86" s="39"/>
+      <c r="K86" s="30"/>
+    </row>
+    <row r="87" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="25"/>
+      <c r="B87" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C87" s="26">
+        <v>1</v>
+      </c>
+      <c r="D87" s="17">
+        <f>3/3.281</f>
+        <v>0.91435537945748246</v>
+      </c>
+      <c r="E87" s="17">
+        <f>4/3.281</f>
+        <v>1.2191405059433098</v>
+      </c>
+      <c r="F87" s="17"/>
+      <c r="G87" s="17">
+        <f>PRODUCT(C87:F87)</f>
+        <v>1.1147276799237822</v>
+      </c>
+      <c r="H87" s="45"/>
+      <c r="I87" s="45"/>
+      <c r="J87" s="39"/>
+      <c r="K87" s="30"/>
+    </row>
+    <row r="88" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="25"/>
+      <c r="B88" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C88" s="26"/>
+      <c r="D88" s="17"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="17"/>
+      <c r="G88" s="27">
+        <f>SUM(G87:G87)</f>
+        <v>1.1147276799237822</v>
+      </c>
+      <c r="H88" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I88" s="28">
+        <f>69579.92/1.15</f>
+        <v>60504.278260869571</v>
+      </c>
+      <c r="J88" s="29">
+        <f>G88*I88</f>
+        <v>67445.793731202066</v>
+      </c>
+      <c r="K88" s="30"/>
+    </row>
+    <row r="89" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="25"/>
+      <c r="B89" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="C89" s="26"/>
+      <c r="D89" s="17"/>
+      <c r="E89" s="17"/>
+      <c r="F89" s="17"/>
+      <c r="G89" s="27"/>
+      <c r="H89" s="27"/>
+      <c r="I89" s="28"/>
+      <c r="J89" s="29">
+        <f>0.13*G88*(9888.94/0.92)</f>
+        <v>1557.6649658736014</v>
+      </c>
+      <c r="K89" s="30"/>
+    </row>
+    <row r="90" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="25"/>
+      <c r="B90" s="22"/>
+      <c r="C90" s="26"/>
+      <c r="D90" s="17"/>
+      <c r="E90" s="17"/>
+      <c r="F90" s="17"/>
+      <c r="G90" s="45"/>
+      <c r="H90" s="45"/>
+      <c r="I90" s="45"/>
+      <c r="J90" s="39"/>
+      <c r="K90" s="30"/>
+      <c r="M90" s="58"/>
+    </row>
+    <row r="91" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A91" s="25">
+        <v>14</v>
+      </c>
+      <c r="B91" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C91" s="26"/>
+      <c r="D91" s="17"/>
+      <c r="E91" s="17"/>
+      <c r="F91" s="17"/>
+      <c r="G91" s="45"/>
+      <c r="H91" s="45"/>
+      <c r="I91" s="45"/>
+      <c r="J91" s="39"/>
+      <c r="K91" s="30"/>
+      <c r="M91" s="58"/>
+    </row>
+    <row r="92" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="25"/>
+      <c r="B92" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C92" s="26">
+        <v>1</v>
+      </c>
+      <c r="D92" s="17"/>
+      <c r="E92" s="17">
+        <f>3.333/3.281</f>
+        <v>1.0158488265772629</v>
+      </c>
+      <c r="F92" s="17">
+        <f>6/3.281</f>
+        <v>1.8287107589149649</v>
+      </c>
+      <c r="G92" s="17">
+        <f>PRODUCT(C92:F92)</f>
+        <v>1.8576936785929832</v>
+      </c>
+      <c r="H92" s="45"/>
+      <c r="I92" s="45"/>
+      <c r="J92" s="39"/>
+      <c r="K92" s="30"/>
+    </row>
+    <row r="93" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="25"/>
+      <c r="B93" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C93" s="26"/>
+      <c r="D93" s="17"/>
+      <c r="E93" s="17"/>
+      <c r="F93" s="17"/>
+      <c r="G93" s="27">
+        <f>SUM(G92:G92)</f>
+        <v>1.8576936785929832</v>
+      </c>
+      <c r="H93" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I93" s="28">
+        <f>15859.11</f>
+        <v>15859.11</v>
+      </c>
+      <c r="J93" s="29">
+        <f>G93*I93</f>
+        <v>29461.368395110767</v>
+      </c>
+      <c r="K93" s="30"/>
+    </row>
+    <row r="94" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="25"/>
+      <c r="B94" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="C94" s="26"/>
+      <c r="D94" s="17"/>
+      <c r="E94" s="17"/>
+      <c r="F94" s="17"/>
+      <c r="G94" s="27"/>
+      <c r="H94" s="27"/>
+      <c r="I94" s="28"/>
+      <c r="J94" s="29">
+        <f>0.13*G93*(20356.18/2.114)</f>
+        <v>2325.4593650989209</v>
+      </c>
+      <c r="K94" s="30"/>
+    </row>
+    <row r="95" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A95" s="25"/>
+      <c r="B95" s="11"/>
+      <c r="C95" s="26"/>
+      <c r="D95" s="17"/>
+      <c r="E95" s="17"/>
+      <c r="F95" s="17"/>
+      <c r="G95" s="45"/>
+      <c r="H95" s="45"/>
+      <c r="I95" s="45"/>
+      <c r="J95" s="39"/>
+      <c r="K95" s="30"/>
+      <c r="M95" s="58"/>
+    </row>
+    <row r="96" spans="1:13" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A96" s="12">
+        <v>10</v>
+      </c>
+      <c r="B96" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C96" s="30"/>
+      <c r="D96" s="30"/>
+      <c r="E96" s="30"/>
+      <c r="F96" s="30"/>
+      <c r="G96" s="46"/>
+      <c r="H96" s="18"/>
+      <c r="I96" s="19"/>
+      <c r="J96" s="19"/>
+      <c r="K96" s="16"/>
+      <c r="M96" s="21"/>
+    </row>
+    <row r="97" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="12"/>
+      <c r="B97" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C97" s="14">
+        <v>1</v>
+      </c>
+      <c r="D97" s="15"/>
+      <c r="E97" s="16">
+        <f>3.32+0.12+0.12</f>
+        <v>3.56</v>
+      </c>
+      <c r="F97" s="16">
+        <f>(9.42+7.75)/3.281</f>
+        <v>5.233160621761658</v>
+      </c>
+      <c r="G97" s="17">
+        <f t="shared" ref="G97:G101" si="10">PRODUCT(C97:F97)</f>
+        <v>18.630051813471503</v>
+      </c>
+      <c r="H97" s="18"/>
+      <c r="I97" s="19"/>
+      <c r="J97" s="20"/>
+      <c r="K97" s="16"/>
+      <c r="M97" s="21"/>
+      <c r="N97" s="21"/>
+    </row>
+    <row r="98" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="12"/>
+      <c r="B98" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C98" s="14">
+        <v>-1</v>
+      </c>
+      <c r="D98" s="15">
+        <f>3.5/3.281</f>
+        <v>1.0667479427003961</v>
+      </c>
+      <c r="E98" s="16"/>
+      <c r="F98" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="G98" s="17">
+        <f t="shared" si="10"/>
+        <v>-1.600121914050594</v>
+      </c>
+      <c r="H98" s="18"/>
+      <c r="I98" s="19"/>
+      <c r="J98" s="20"/>
+      <c r="K98" s="16"/>
+      <c r="M98" s="21"/>
+      <c r="N98" s="21"/>
+    </row>
+    <row r="99" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A99" s="12"/>
+      <c r="B99" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C99" s="14">
+        <v>-1</v>
+      </c>
+      <c r="D99" s="15">
+        <f>3.833/3.281</f>
+        <v>1.1682413898201769</v>
+      </c>
+      <c r="E99" s="16"/>
+      <c r="F99" s="16">
+        <f>7.75/3.281</f>
+        <v>2.3620847302651629</v>
+      </c>
+      <c r="G99" s="17">
+        <f t="shared" si="10"/>
+        <v>-2.7594851481579914</v>
+      </c>
+      <c r="H99" s="18"/>
+      <c r="I99" s="19"/>
+      <c r="J99" s="20"/>
+      <c r="K99" s="16"/>
+      <c r="M99" s="90"/>
+      <c r="N99" s="21"/>
+    </row>
+    <row r="100" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="12"/>
+      <c r="B100" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C100" s="14">
+        <v>1</v>
+      </c>
+      <c r="D100" s="15"/>
+      <c r="E100" s="16">
+        <f>(5.75)/3.281</f>
+        <v>1.752514477293508</v>
+      </c>
+      <c r="F100" s="16">
+        <f>(9.42+7.75)/3.281</f>
+        <v>5.233160621761658</v>
+      </c>
+      <c r="G100" s="17">
+        <f t="shared" si="10"/>
+        <v>9.1711897516396004</v>
+      </c>
+      <c r="H100" s="18"/>
+      <c r="I100" s="19"/>
+      <c r="J100" s="20"/>
+      <c r="K100" s="16"/>
+      <c r="M100" s="21"/>
+      <c r="N100" s="21"/>
+    </row>
+    <row r="101" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="12"/>
+      <c r="B101" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C101" s="14">
+        <f>-15</f>
+        <v>-15</v>
+      </c>
+      <c r="D101" s="15">
+        <f>E97+E100</f>
+        <v>5.312514477293508</v>
+      </c>
+      <c r="E101" s="16"/>
+      <c r="F101" s="16">
+        <v>0.15</v>
+      </c>
+      <c r="G101" s="17">
+        <f t="shared" si="10"/>
+        <v>-11.953157573910394</v>
+      </c>
+      <c r="H101" s="18"/>
+      <c r="I101" s="19"/>
+      <c r="J101" s="20"/>
+      <c r="K101" s="16"/>
+      <c r="M101" s="21"/>
+      <c r="N101" s="21"/>
+    </row>
+    <row r="102" spans="1:14" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="47"/>
+      <c r="B102" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="C102" s="49">
+        <v>-1</v>
+      </c>
+      <c r="D102" s="50">
+        <f>D99</f>
+        <v>1.1682413898201769</v>
+      </c>
+      <c r="E102" s="50"/>
+      <c r="F102" s="50">
+        <f>F99</f>
+        <v>2.3620847302651629</v>
+      </c>
+      <c r="G102" s="50">
+        <f t="shared" ref="G102:G103" si="11">PRODUCT(C102:F102)</f>
+        <v>-2.7594851481579914</v>
+      </c>
+      <c r="H102" s="50"/>
+      <c r="I102" s="50"/>
+      <c r="J102" s="51"/>
+      <c r="K102" s="52"/>
+    </row>
+    <row r="103" spans="1:14" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="47"/>
+      <c r="B103" s="48" t="s">
+        <v>148</v>
+      </c>
+      <c r="C103" s="49">
+        <v>-1</v>
+      </c>
+      <c r="D103" s="50">
+        <f>D98</f>
+        <v>1.0667479427003961</v>
+      </c>
+      <c r="E103" s="50"/>
+      <c r="F103" s="50">
+        <f>F98</f>
+        <v>1.5</v>
+      </c>
+      <c r="G103" s="50">
+        <f t="shared" si="11"/>
+        <v>-1.600121914050594</v>
+      </c>
+      <c r="H103" s="50"/>
+      <c r="I103" s="50"/>
+      <c r="J103" s="51"/>
+      <c r="K103" s="52"/>
+    </row>
+    <row r="104" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="12"/>
+      <c r="B104" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C104" s="14"/>
+      <c r="D104" s="15"/>
+      <c r="E104" s="16"/>
+      <c r="F104" s="16"/>
+      <c r="G104" s="19">
+        <f>SUM(G97:G103)</f>
+        <v>7.1288698667835382</v>
+      </c>
+      <c r="H104" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I104" s="19">
+        <f>5810.57/1.15</f>
+        <v>5052.6695652173912</v>
+      </c>
+      <c r="J104" s="20">
+        <f>G104*I104</f>
+        <v>36019.823810292539</v>
+      </c>
+      <c r="K104" s="16"/>
+      <c r="M104" s="21"/>
+      <c r="N104" s="21"/>
+    </row>
+    <row r="105" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="12"/>
+      <c r="B105" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C105" s="14"/>
+      <c r="D105" s="15"/>
+      <c r="E105" s="16"/>
+      <c r="F105" s="16"/>
+      <c r="G105" s="19"/>
+      <c r="H105" s="18"/>
+      <c r="I105" s="19"/>
+      <c r="J105" s="20">
+        <f>G104*0.13*(309557.25/100)</f>
+        <v>2868.831357040192</v>
+      </c>
+      <c r="K105" s="16"/>
+      <c r="M105" s="21"/>
+      <c r="N105" s="21"/>
+    </row>
+    <row r="106" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="12"/>
+      <c r="B106" s="22"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="15"/>
+      <c r="E106" s="16"/>
+      <c r="F106" s="16"/>
+      <c r="G106" s="19"/>
+      <c r="H106" s="18"/>
+      <c r="I106" s="19"/>
+      <c r="J106" s="20"/>
+      <c r="K106" s="16"/>
+      <c r="M106" s="21"/>
+      <c r="N106" s="21"/>
+    </row>
+    <row r="107" spans="1:14" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A107" s="12">
+        <v>11</v>
+      </c>
+      <c r="B107" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C107" s="14"/>
+      <c r="D107" s="15"/>
+      <c r="E107" s="16"/>
+      <c r="F107" s="16"/>
+      <c r="G107" s="19"/>
+      <c r="H107" s="18"/>
+      <c r="I107" s="19"/>
+      <c r="J107" s="20"/>
+      <c r="K107" s="16"/>
+      <c r="M107" s="21"/>
+      <c r="N107" s="21"/>
+    </row>
+    <row r="108" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="12"/>
+      <c r="B108" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C108" s="14">
+        <v>1</v>
+      </c>
+      <c r="D108" s="15">
+        <f>E97+E100</f>
+        <v>5.312514477293508</v>
+      </c>
+      <c r="E108" s="16"/>
+      <c r="F108" s="16"/>
+      <c r="G108" s="17">
+        <f>PRODUCT(C108:F108)</f>
+        <v>5.312514477293508</v>
+      </c>
+      <c r="H108" s="18"/>
+      <c r="I108" s="19"/>
+      <c r="J108" s="20"/>
+      <c r="K108" s="16"/>
+      <c r="M108" s="21"/>
+      <c r="N108" s="21"/>
+    </row>
+    <row r="109" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="12"/>
+      <c r="B109" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C109" s="14"/>
+      <c r="D109" s="15"/>
+      <c r="E109" s="16"/>
+      <c r="F109" s="16"/>
+      <c r="G109" s="19">
+        <f>SUM(G108:G108)</f>
+        <v>5.312514477293508</v>
+      </c>
+      <c r="H109" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="I109" s="19">
+        <f>396.86/1.15</f>
+        <v>345.09565217391309</v>
+      </c>
+      <c r="J109" s="20">
+        <f>G109*I109</f>
+        <v>1833.3256482249583</v>
+      </c>
+      <c r="K109" s="16"/>
+      <c r="M109" s="21"/>
+      <c r="N109" s="21"/>
+    </row>
+    <row r="110" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="12"/>
+      <c r="B110" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C110" s="14"/>
+      <c r="D110" s="15"/>
+      <c r="E110" s="16"/>
+      <c r="F110" s="16"/>
+      <c r="G110" s="19"/>
+      <c r="H110" s="18"/>
+      <c r="I110" s="19"/>
+      <c r="J110" s="20">
+        <f>G109*0.13*(2182.61/10)</f>
+        <v>150.73691390271259</v>
+      </c>
+      <c r="K110" s="16"/>
+      <c r="M110" s="21"/>
+      <c r="N110" s="21"/>
+    </row>
+    <row r="111" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="12"/>
+      <c r="B111" s="22"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="15"/>
+      <c r="E111" s="16"/>
+      <c r="F111" s="16"/>
+      <c r="G111" s="19"/>
+      <c r="H111" s="18"/>
+      <c r="I111" s="19"/>
+      <c r="J111" s="20"/>
+      <c r="K111" s="16"/>
+      <c r="M111" s="21"/>
+      <c r="N111" s="21"/>
+    </row>
+    <row r="112" spans="1:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A112" s="12">
+        <v>12</v>
+      </c>
+      <c r="B112" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C112" s="14"/>
+      <c r="D112" s="15"/>
+      <c r="E112" s="16"/>
+      <c r="F112" s="16"/>
+      <c r="G112" s="19"/>
+      <c r="H112" s="18"/>
+      <c r="I112" s="19"/>
+      <c r="J112" s="20"/>
+      <c r="K112" s="16"/>
+      <c r="M112" s="21"/>
+      <c r="N112" s="21"/>
+    </row>
+    <row r="113" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="12"/>
+      <c r="B113" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C113" s="14">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="D113" s="15">
+        <f>D108</f>
+        <v>5.312514477293508</v>
+      </c>
+      <c r="E113" s="16"/>
+      <c r="F113" s="16"/>
+      <c r="G113" s="17">
+        <f t="shared" ref="G113" si="12">PRODUCT(C113:F113)</f>
+        <v>5.312514477293508</v>
+      </c>
+      <c r="H113" s="18"/>
+      <c r="I113" s="19"/>
+      <c r="J113" s="20"/>
+      <c r="K113" s="16"/>
+      <c r="M113" s="21"/>
+      <c r="N113" s="21"/>
+    </row>
+    <row r="114" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="12"/>
+      <c r="B114" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C114" s="14"/>
+      <c r="D114" s="15"/>
+      <c r="E114" s="16"/>
+      <c r="F114" s="16"/>
+      <c r="G114" s="19">
+        <f>SUM(G113:G113)</f>
+        <v>5.312514477293508</v>
+      </c>
+      <c r="H114" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="I114" s="19">
+        <f>465.63/1.15</f>
+        <v>404.89565217391305</v>
+      </c>
+      <c r="J114" s="20">
+        <f>G114*I114</f>
+        <v>2151.0140139671098</v>
+      </c>
+      <c r="K114" s="16"/>
+      <c r="M114" s="21"/>
+      <c r="N114" s="21"/>
+    </row>
+    <row r="115" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="12"/>
+      <c r="B115" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C115" s="14"/>
+      <c r="D115" s="15"/>
+      <c r="E115" s="16"/>
+      <c r="F115" s="16"/>
+      <c r="G115" s="19"/>
+      <c r="H115" s="18"/>
+      <c r="I115" s="19"/>
+      <c r="J115" s="20">
+        <f>G114*0.13*(2780.61/10)</f>
+        <v>192.03640144919234</v>
+      </c>
+      <c r="K115" s="16"/>
+      <c r="M115" s="21"/>
+      <c r="N115" s="21"/>
+    </row>
+    <row r="116" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="12"/>
+      <c r="B116" s="22"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="15"/>
+      <c r="E116" s="16"/>
+      <c r="F116" s="16"/>
+      <c r="G116" s="19"/>
+      <c r="H116" s="18"/>
+      <c r="I116" s="19"/>
+      <c r="J116" s="20"/>
+      <c r="K116" s="16"/>
+      <c r="M116" s="21"/>
+      <c r="N116" s="21"/>
+    </row>
+    <row r="117" spans="1:14" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A117" s="12">
+        <v>13</v>
+      </c>
+      <c r="B117" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C117" s="14"/>
+      <c r="D117" s="15"/>
+      <c r="E117" s="16"/>
+      <c r="F117" s="16"/>
+      <c r="G117" s="19"/>
+      <c r="H117" s="18"/>
+      <c r="I117" s="19"/>
+      <c r="J117" s="20"/>
+      <c r="K117" s="16"/>
+      <c r="M117" s="21"/>
+      <c r="N117" s="21"/>
+    </row>
+    <row r="118" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="12"/>
+      <c r="B118" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C118" s="14">
+        <f>2</f>
+        <v>2</v>
+      </c>
+      <c r="D118" s="15">
+        <f>D113</f>
+        <v>5.312514477293508</v>
+      </c>
+      <c r="E118" s="16"/>
+      <c r="F118" s="16"/>
+      <c r="G118" s="17">
+        <f t="shared" ref="G118:G119" si="13">PRODUCT(C118:F118)</f>
+        <v>10.625028954587016</v>
+      </c>
+      <c r="H118" s="18"/>
+      <c r="I118" s="19"/>
+      <c r="J118" s="20"/>
+      <c r="K118" s="16"/>
+      <c r="M118" s="21"/>
+      <c r="N118" s="21"/>
+    </row>
+    <row r="119" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="12"/>
+      <c r="B119" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C119" s="14">
+        <v>-1</v>
+      </c>
+      <c r="D119" s="15">
+        <f>D102</f>
+        <v>1.1682413898201769</v>
+      </c>
+      <c r="E119" s="16"/>
+      <c r="F119" s="16"/>
+      <c r="G119" s="17">
+        <f t="shared" si="13"/>
+        <v>-1.1682413898201769</v>
+      </c>
+      <c r="H119" s="18"/>
+      <c r="I119" s="19"/>
+      <c r="J119" s="20"/>
+      <c r="K119" s="16"/>
+      <c r="M119" s="21"/>
+      <c r="N119" s="21"/>
+    </row>
+    <row r="120" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="12"/>
+      <c r="B120" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C120" s="14"/>
+      <c r="D120" s="15"/>
+      <c r="E120" s="16"/>
+      <c r="F120" s="16"/>
+      <c r="G120" s="19">
+        <f>SUM(G118:G119)</f>
+        <v>9.4567875647668398</v>
+      </c>
+      <c r="H120" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="I120" s="19">
+        <f>406.75/1.15</f>
+        <v>353.69565217391306</v>
+      </c>
+      <c r="J120" s="20">
+        <f>G120*I120</f>
+        <v>3344.8246451903583</v>
+      </c>
+      <c r="K120" s="16"/>
+      <c r="M120" s="21"/>
+      <c r="N120" s="21"/>
+    </row>
+    <row r="121" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="12"/>
+      <c r="B121" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C121" s="14"/>
+      <c r="D121" s="15"/>
+      <c r="E121" s="16"/>
+      <c r="F121" s="16"/>
+      <c r="G121" s="19"/>
+      <c r="H121" s="18"/>
+      <c r="I121" s="19"/>
+      <c r="J121" s="20">
+        <f>G120*0.13*(2268.61/10)</f>
+        <v>278.89891688497414</v>
+      </c>
+      <c r="K121" s="16"/>
+      <c r="M121" s="21"/>
+      <c r="N121" s="21"/>
+    </row>
+    <row r="122" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="12"/>
+      <c r="B122" s="22"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="15"/>
+      <c r="E122" s="16"/>
+      <c r="F122" s="16"/>
+      <c r="G122" s="19"/>
+      <c r="H122" s="18"/>
+      <c r="I122" s="19"/>
+      <c r="J122" s="20"/>
+      <c r="K122" s="16"/>
+      <c r="M122" s="21"/>
+      <c r="N122" s="21"/>
+    </row>
+    <row r="123" spans="1:14" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A123" s="12">
+        <v>14</v>
+      </c>
+      <c r="B123" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C123" s="14"/>
+      <c r="D123" s="15"/>
+      <c r="E123" s="16"/>
+      <c r="F123" s="16"/>
+      <c r="G123" s="19"/>
+      <c r="H123" s="18"/>
+      <c r="I123" s="19"/>
+      <c r="J123" s="20"/>
+      <c r="K123" s="16"/>
+      <c r="M123" s="21"/>
+      <c r="N123" s="21"/>
+    </row>
+    <row r="124" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="12"/>
+      <c r="B124" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C124" s="14">
+        <v>1</v>
+      </c>
+      <c r="D124" s="15">
+        <f>D118</f>
+        <v>5.312514477293508</v>
+      </c>
+      <c r="E124" s="16"/>
+      <c r="F124" s="16"/>
+      <c r="G124" s="17">
+        <f t="shared" ref="G124:G125" si="14">PRODUCT(C124:F124)</f>
+        <v>5.312514477293508</v>
+      </c>
+      <c r="H124" s="18"/>
+      <c r="I124" s="19"/>
+      <c r="J124" s="20"/>
+      <c r="K124" s="16"/>
+      <c r="M124" s="21"/>
+      <c r="N124" s="21"/>
+    </row>
+    <row r="125" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="12"/>
+      <c r="B125" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C125" s="14">
+        <v>-1</v>
+      </c>
+      <c r="D125" s="15">
+        <f>D119</f>
+        <v>1.1682413898201769</v>
+      </c>
+      <c r="E125" s="16"/>
+      <c r="F125" s="16"/>
+      <c r="G125" s="17">
+        <f t="shared" si="14"/>
+        <v>-1.1682413898201769</v>
+      </c>
+      <c r="H125" s="18"/>
+      <c r="I125" s="19"/>
+      <c r="J125" s="20"/>
+      <c r="K125" s="16"/>
+      <c r="M125" s="21"/>
+      <c r="N125" s="21"/>
+    </row>
+    <row r="126" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="12"/>
+      <c r="B126" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C126" s="14"/>
+      <c r="D126" s="15"/>
+      <c r="E126" s="16"/>
+      <c r="F126" s="16"/>
+      <c r="G126" s="19">
+        <f>SUM(G124:G125)</f>
+        <v>4.1442730874733309</v>
+      </c>
+      <c r="H126" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="I126" s="19">
+        <f>447.23/1.15</f>
+        <v>388.89565217391311</v>
+      </c>
+      <c r="J126" s="20">
+        <f>G126*I126</f>
+        <v>1611.6897851397375</v>
+      </c>
+      <c r="K126" s="16"/>
+      <c r="M126" s="21"/>
+      <c r="N126" s="21"/>
+    </row>
+    <row r="127" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="12"/>
+      <c r="B127" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C127" s="14"/>
+      <c r="D127" s="15"/>
+      <c r="E127" s="16"/>
+      <c r="F127" s="16"/>
+      <c r="G127" s="19"/>
+      <c r="H127" s="18"/>
+      <c r="I127" s="19"/>
+      <c r="J127" s="20">
+        <f>G126*0.13*(2620.61/10)</f>
+        <v>141.18680544492534</v>
+      </c>
+      <c r="K127" s="16"/>
+      <c r="M127" s="21"/>
+      <c r="N127" s="21"/>
+    </row>
+    <row r="128" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="12"/>
+      <c r="B128" s="22"/>
+      <c r="C128" s="14"/>
+      <c r="D128" s="15"/>
+      <c r="E128" s="16"/>
+      <c r="F128" s="16"/>
+      <c r="G128" s="19"/>
+      <c r="H128" s="18"/>
+      <c r="I128" s="19"/>
+      <c r="J128" s="20"/>
+      <c r="K128" s="16"/>
+      <c r="M128" s="21"/>
+      <c r="N128" s="21"/>
+    </row>
+    <row r="129" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A129" s="12">
+        <v>15</v>
+      </c>
+      <c r="B129" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C129" s="14"/>
+      <c r="D129" s="15"/>
+      <c r="E129" s="16"/>
+      <c r="F129" s="16"/>
+      <c r="G129" s="19"/>
+      <c r="H129" s="18"/>
+      <c r="I129" s="19"/>
+      <c r="J129" s="20"/>
+      <c r="K129" s="16"/>
+      <c r="M129" s="21"/>
+      <c r="N129" s="21"/>
+    </row>
+    <row r="130" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="12"/>
+      <c r="B130" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C130" s="14">
+        <f>1*2</f>
+        <v>2</v>
+      </c>
+      <c r="D130" s="15">
+        <f>D124</f>
+        <v>5.312514477293508</v>
+      </c>
+      <c r="E130" s="16"/>
+      <c r="F130" s="16"/>
+      <c r="G130" s="17">
+        <f t="shared" ref="G130" si="15">PRODUCT(C130:F130)</f>
+        <v>10.625028954587016</v>
+      </c>
+      <c r="H130" s="18"/>
+      <c r="I130" s="19"/>
+      <c r="J130" s="20"/>
+      <c r="K130" s="16"/>
+      <c r="M130" s="21"/>
+      <c r="N130" s="21"/>
+    </row>
+    <row r="131" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="12"/>
+      <c r="B131" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C131" s="14"/>
+      <c r="D131" s="15"/>
+      <c r="E131" s="16"/>
+      <c r="F131" s="16"/>
+      <c r="G131" s="19">
+        <f>SUM(G130:G130)</f>
+        <v>10.625028954587016</v>
+      </c>
+      <c r="H131" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="I131" s="19">
+        <f>469.79/1.15</f>
+        <v>408.5130434782609</v>
+      </c>
+      <c r="J131" s="20">
+        <f>G131*I131</f>
+        <v>4340.4629152829866</v>
+      </c>
+      <c r="K131" s="16"/>
+      <c r="M131" s="21"/>
+      <c r="N131" s="21"/>
+    </row>
+    <row r="132" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="12"/>
+      <c r="B132" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C132" s="14"/>
+      <c r="D132" s="15"/>
+      <c r="E132" s="16"/>
+      <c r="F132" s="16"/>
+      <c r="G132" s="19"/>
+      <c r="H132" s="18"/>
+      <c r="I132" s="19"/>
+      <c r="J132" s="20">
+        <f>G131*0.13*(2140.61/10)</f>
+        <v>295.67256199622068</v>
+      </c>
+      <c r="K132" s="16"/>
+      <c r="M132" s="21"/>
+      <c r="N132" s="21"/>
+    </row>
+    <row r="133" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="12"/>
+      <c r="B133" s="30"/>
+      <c r="C133" s="14"/>
+      <c r="D133" s="15"/>
+      <c r="E133" s="16"/>
+      <c r="F133" s="16"/>
+      <c r="G133" s="19"/>
+      <c r="H133" s="18"/>
+      <c r="I133" s="19"/>
+      <c r="J133" s="20"/>
+      <c r="K133" s="16"/>
+      <c r="M133" s="21"/>
+      <c r="N133" s="21"/>
+    </row>
+    <row r="134" spans="1:15" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A134" s="12">
+        <v>16</v>
+      </c>
+      <c r="B134" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C134" s="14"/>
+      <c r="D134" s="15"/>
+      <c r="E134" s="16"/>
+      <c r="F134" s="16"/>
+      <c r="G134" s="19"/>
+      <c r="H134" s="18"/>
+      <c r="I134" s="19"/>
+      <c r="J134" s="20"/>
+      <c r="K134" s="16"/>
+      <c r="M134" s="21"/>
+      <c r="N134" s="21"/>
+    </row>
+    <row r="135" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="12"/>
+      <c r="B135" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C135" s="14">
+        <f>1*2</f>
+        <v>2</v>
+      </c>
+      <c r="D135" s="15">
+        <f>D155</f>
+        <v>5.312514477293508</v>
+      </c>
+      <c r="E135" s="16"/>
+      <c r="F135" s="16"/>
+      <c r="G135" s="17">
+        <f t="shared" ref="G135" si="16">PRODUCT(C135:F135)</f>
+        <v>10.625028954587016</v>
+      </c>
+      <c r="H135" s="18"/>
+      <c r="I135" s="19"/>
+      <c r="J135" s="20"/>
+      <c r="K135" s="16"/>
+      <c r="M135" s="21"/>
+      <c r="N135" s="21"/>
+    </row>
+    <row r="136" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="12"/>
+      <c r="B136" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C136" s="14"/>
+      <c r="D136" s="15"/>
+      <c r="E136" s="16"/>
+      <c r="F136" s="16"/>
+      <c r="G136" s="19">
+        <f>SUM(G135:G135)</f>
+        <v>10.625028954587016</v>
+      </c>
+      <c r="H136" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="I136" s="19">
+        <f>476.67/1.15</f>
+        <v>414.49565217391307</v>
+      </c>
+      <c r="J136" s="20">
+        <f>G136*I136</f>
+        <v>4404.028305898255</v>
+      </c>
+      <c r="K136" s="16"/>
+      <c r="M136" s="21"/>
+      <c r="N136" s="21"/>
+    </row>
+    <row r="137" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="12"/>
+      <c r="B137" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C137" s="14"/>
+      <c r="D137" s="15"/>
+      <c r="E137" s="16"/>
+      <c r="F137" s="16"/>
+      <c r="G137" s="19"/>
+      <c r="H137" s="18"/>
+      <c r="I137" s="19"/>
+      <c r="J137" s="20">
+        <f>G136*0.13*(2876.61/10)</f>
+        <v>397.33283903370921</v>
+      </c>
+      <c r="K137" s="16"/>
+      <c r="M137" s="21"/>
+      <c r="N137" s="21"/>
+    </row>
+    <row r="138" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="12"/>
+      <c r="B138" s="22"/>
+      <c r="C138" s="14"/>
+      <c r="D138" s="15"/>
+      <c r="E138" s="16"/>
+      <c r="F138" s="16"/>
+      <c r="G138" s="19"/>
+      <c r="H138" s="18"/>
+      <c r="I138" s="19"/>
+      <c r="J138" s="20"/>
+      <c r="K138" s="16"/>
+      <c r="M138" s="21"/>
+      <c r="N138" s="21"/>
+    </row>
+    <row r="139" spans="1:15" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A139" s="12">
+        <v>17</v>
+      </c>
+      <c r="B139" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C139" s="14"/>
+      <c r="D139" s="15"/>
+      <c r="E139" s="16"/>
+      <c r="F139" s="16"/>
+      <c r="G139" s="19"/>
+      <c r="H139" s="18"/>
+      <c r="I139" s="19"/>
+      <c r="J139" s="20"/>
+      <c r="K139" s="16"/>
+      <c r="M139" s="21"/>
+      <c r="N139" s="21"/>
+    </row>
+    <row r="140" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="12"/>
+      <c r="B140" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C140" s="14">
+        <f>1*2</f>
+        <v>2</v>
+      </c>
+      <c r="D140" s="15">
+        <f>D135</f>
+        <v>5.312514477293508</v>
+      </c>
+      <c r="E140" s="16"/>
+      <c r="F140" s="16"/>
+      <c r="G140" s="17">
+        <f>PRODUCT(C140:F140)</f>
+        <v>10.625028954587016</v>
+      </c>
+      <c r="H140" s="18"/>
+      <c r="I140" s="19"/>
+      <c r="J140" s="20"/>
+      <c r="K140" s="16"/>
+      <c r="M140" s="21"/>
+      <c r="N140" s="21"/>
+    </row>
+    <row r="141" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="12"/>
+      <c r="B141" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C141" s="14"/>
+      <c r="D141" s="15"/>
+      <c r="E141" s="16"/>
+      <c r="F141" s="16"/>
+      <c r="G141" s="19">
+        <f>SUM(G140:G140)</f>
+        <v>10.625028954587016</v>
+      </c>
+      <c r="H141" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="I141" s="19">
+        <f>593.85/1.15</f>
+        <v>516.39130434782612</v>
+      </c>
+      <c r="J141" s="20">
+        <f>G141*I141</f>
+        <v>5486.6725605926085</v>
+      </c>
+      <c r="K141" s="16"/>
+      <c r="M141" s="21"/>
+      <c r="N141" s="21"/>
+      <c r="O141">
+        <f>330/2.5</f>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="12"/>
+      <c r="B142" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C142" s="14"/>
+      <c r="D142" s="15"/>
+      <c r="E142" s="16"/>
+      <c r="F142" s="16"/>
+      <c r="G142" s="19"/>
+      <c r="H142" s="18"/>
+      <c r="I142" s="19"/>
+      <c r="J142" s="20">
+        <f>G141*0.13*(3895.61/10)</f>
+        <v>538.0825975951235</v>
+      </c>
+      <c r="K142" s="16"/>
+      <c r="M142" s="21"/>
+      <c r="N142" s="21"/>
+    </row>
+    <row r="143" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="12"/>
+      <c r="B143" s="22"/>
+      <c r="C143" s="14"/>
+      <c r="D143" s="15"/>
+      <c r="E143" s="16"/>
+      <c r="F143" s="16"/>
+      <c r="G143" s="19"/>
+      <c r="H143" s="18"/>
+      <c r="I143" s="19"/>
+      <c r="J143" s="20"/>
+      <c r="K143" s="16"/>
+      <c r="M143" s="21"/>
+      <c r="N143" s="21"/>
+    </row>
+    <row r="144" spans="1:15" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A144" s="12">
+        <v>18</v>
+      </c>
+      <c r="B144" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C144" s="14"/>
+      <c r="D144" s="15"/>
+      <c r="E144" s="16"/>
+      <c r="F144" s="16"/>
+      <c r="G144" s="19"/>
+      <c r="H144" s="18"/>
+      <c r="I144" s="19"/>
+      <c r="J144" s="20"/>
+      <c r="K144" s="16"/>
+      <c r="M144" s="21"/>
+      <c r="N144" s="21"/>
+    </row>
+    <row r="145" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="12"/>
+      <c r="B145" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C145" s="14">
+        <f>1*2</f>
+        <v>2</v>
+      </c>
+      <c r="D145" s="15">
+        <f>D140</f>
+        <v>5.312514477293508</v>
+      </c>
+      <c r="E145" s="16"/>
+      <c r="F145" s="16"/>
+      <c r="G145" s="17">
+        <f t="shared" ref="G145" si="17">PRODUCT(C145:F145)</f>
+        <v>10.625028954587016</v>
+      </c>
+      <c r="H145" s="18"/>
+      <c r="I145" s="19"/>
+      <c r="J145" s="20"/>
+      <c r="K145" s="16"/>
+      <c r="M145" s="21"/>
+      <c r="N145" s="21"/>
+    </row>
+    <row r="146" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="12"/>
+      <c r="B146" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C146" s="14"/>
+      <c r="D146" s="15"/>
+      <c r="E146" s="16"/>
+      <c r="F146" s="16"/>
+      <c r="G146" s="19">
+        <f>SUM(G145:G145)</f>
+        <v>10.625028954587016</v>
+      </c>
+      <c r="H146" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="I146" s="19">
+        <f>487.71/1.15</f>
+        <v>424.09565217391304</v>
+      </c>
+      <c r="J146" s="20">
+        <f>G146*I146</f>
+        <v>4506.0285838622904</v>
+      </c>
+      <c r="K146" s="16"/>
+      <c r="M146" s="21"/>
+      <c r="N146" s="21"/>
+    </row>
+    <row r="147" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="12"/>
+      <c r="B147" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C147" s="14"/>
+      <c r="D147" s="15"/>
+      <c r="E147" s="16"/>
+      <c r="F147" s="16"/>
+      <c r="G147" s="19"/>
+      <c r="H147" s="18"/>
+      <c r="I147" s="19"/>
+      <c r="J147" s="20">
+        <f>G146*0.13*(2972.61/10)</f>
+        <v>410.59287516903385</v>
+      </c>
+      <c r="K147" s="16"/>
+      <c r="M147" s="21"/>
+      <c r="N147" s="21"/>
+    </row>
+    <row r="148" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="12"/>
+      <c r="B148" s="22"/>
+      <c r="C148" s="14"/>
+      <c r="D148" s="15"/>
+      <c r="E148" s="16"/>
+      <c r="F148" s="16"/>
+      <c r="G148" s="19"/>
+      <c r="H148" s="18"/>
+      <c r="I148" s="19"/>
+      <c r="J148" s="20"/>
+      <c r="K148" s="16"/>
+      <c r="M148" s="21"/>
+      <c r="N148" s="21"/>
+    </row>
+    <row r="149" spans="1:14" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A149" s="12">
+        <v>19</v>
+      </c>
+      <c r="B149" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C149" s="14"/>
+      <c r="D149" s="15"/>
+      <c r="E149" s="16"/>
+      <c r="F149" s="16"/>
+      <c r="G149" s="19"/>
+      <c r="H149" s="18"/>
+      <c r="I149" s="19"/>
+      <c r="J149" s="20"/>
+      <c r="K149" s="16"/>
+      <c r="M149" s="21"/>
+      <c r="N149" s="21"/>
+    </row>
+    <row r="150" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="12"/>
+      <c r="B150" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C150" s="14">
+        <v>1</v>
+      </c>
+      <c r="D150" s="15">
+        <f>D145</f>
+        <v>5.312514477293508</v>
+      </c>
+      <c r="E150" s="16"/>
+      <c r="F150" s="16"/>
+      <c r="G150" s="17">
+        <f t="shared" ref="G150" si="18">PRODUCT(C150:F150)</f>
+        <v>5.312514477293508</v>
+      </c>
+      <c r="H150" s="18"/>
+      <c r="I150" s="19"/>
+      <c r="J150" s="20"/>
+      <c r="K150" s="16"/>
+      <c r="M150" s="21"/>
+      <c r="N150" s="21"/>
+    </row>
+    <row r="151" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="12"/>
+      <c r="B151" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C151" s="14"/>
+      <c r="D151" s="15"/>
+      <c r="E151" s="16"/>
+      <c r="F151" s="16"/>
+      <c r="G151" s="19">
+        <f>SUM(G150:G150)</f>
+        <v>5.312514477293508</v>
+      </c>
+      <c r="H151" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="I151" s="19">
+        <f>776.13/1.15</f>
+        <v>674.89565217391305</v>
+      </c>
+      <c r="J151" s="20">
+        <f>G151*I151</f>
+        <v>3585.3929228363568</v>
+      </c>
+      <c r="K151" s="16"/>
+      <c r="M151" s="21"/>
+      <c r="N151" s="21"/>
+    </row>
+    <row r="152" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="12"/>
+      <c r="B152" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C152" s="14"/>
+      <c r="D152" s="15"/>
+      <c r="E152" s="16"/>
+      <c r="F152" s="16"/>
+      <c r="G152" s="19"/>
+      <c r="H152" s="18"/>
+      <c r="I152" s="19"/>
+      <c r="J152" s="20">
+        <f>G151*0.13*(5480.61/10)</f>
+        <v>378.50565960219438</v>
+      </c>
+      <c r="K152" s="16"/>
+      <c r="M152" s="21"/>
+      <c r="N152" s="21"/>
+    </row>
+    <row r="153" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="12"/>
+      <c r="B153" s="22"/>
+      <c r="C153" s="14"/>
+      <c r="D153" s="15"/>
+      <c r="E153" s="16"/>
+      <c r="F153" s="16"/>
+      <c r="G153" s="19"/>
+      <c r="H153" s="18"/>
+      <c r="I153" s="19"/>
+      <c r="J153" s="20"/>
+      <c r="K153" s="16"/>
+      <c r="M153" s="21"/>
+      <c r="N153" s="21"/>
+    </row>
+    <row r="154" spans="1:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A154" s="12">
+        <v>20</v>
+      </c>
+      <c r="B154" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C154" s="14"/>
+      <c r="D154" s="15"/>
+      <c r="E154" s="16"/>
+      <c r="F154" s="16"/>
+      <c r="G154" s="19"/>
+      <c r="H154" s="18"/>
+      <c r="I154" s="19"/>
+      <c r="J154" s="20"/>
+      <c r="K154" s="16"/>
+      <c r="M154" s="21"/>
+      <c r="N154" s="21"/>
+    </row>
+    <row r="155" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="12"/>
+      <c r="B155" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C155" s="14">
+        <f>2</f>
+        <v>2</v>
+      </c>
+      <c r="D155" s="15">
+        <f>D124</f>
+        <v>5.312514477293508</v>
+      </c>
+      <c r="E155" s="16"/>
+      <c r="F155" s="16"/>
+      <c r="G155" s="17">
+        <f t="shared" ref="G155" si="19">PRODUCT(C155:F155)</f>
+        <v>10.625028954587016</v>
+      </c>
+      <c r="H155" s="18"/>
+      <c r="I155" s="19"/>
+      <c r="J155" s="20"/>
+      <c r="K155" s="16"/>
+      <c r="M155" s="21"/>
+      <c r="N155" s="21"/>
+    </row>
+    <row r="156" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="12"/>
+      <c r="B156" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C156" s="14"/>
+      <c r="D156" s="15"/>
+      <c r="E156" s="16"/>
+      <c r="F156" s="16"/>
+      <c r="G156" s="19">
+        <f>SUM(G155:G155)</f>
+        <v>10.625028954587016</v>
+      </c>
+      <c r="H156" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="I156" s="19">
+        <f>465.63/1.15</f>
+        <v>404.89565217391305</v>
+      </c>
+      <c r="J156" s="20">
+        <f>G156*I156</f>
+        <v>4302.0280279342196</v>
+      </c>
+      <c r="K156" s="16"/>
+      <c r="M156" s="21"/>
+      <c r="N156" s="21"/>
+    </row>
+    <row r="157" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="12"/>
+      <c r="B157" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C157" s="14"/>
+      <c r="D157" s="15"/>
+      <c r="E157" s="16"/>
+      <c r="F157" s="16"/>
+      <c r="G157" s="19"/>
+      <c r="H157" s="18"/>
+      <c r="I157" s="19"/>
+      <c r="J157" s="20">
+        <f>G156*0.13*(2780.61/10)</f>
+        <v>384.07280289838468</v>
+      </c>
+      <c r="K157" s="16"/>
+      <c r="M157" s="21"/>
+      <c r="N157" s="21"/>
+    </row>
+    <row r="158" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="12"/>
+      <c r="B158" s="22"/>
+      <c r="C158" s="14"/>
+      <c r="D158" s="15"/>
+      <c r="E158" s="16"/>
+      <c r="F158" s="16"/>
+      <c r="G158" s="19"/>
+      <c r="H158" s="18"/>
+      <c r="I158" s="19"/>
+      <c r="J158" s="20"/>
+      <c r="K158" s="16"/>
+      <c r="M158" s="21"/>
+      <c r="N158" s="21"/>
+    </row>
+    <row r="159" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="12">
+        <v>15</v>
+      </c>
+      <c r="B159" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="C159" s="32">
+        <v>1</v>
+      </c>
+      <c r="D159" s="33"/>
+      <c r="E159" s="33"/>
+      <c r="F159" s="33"/>
+      <c r="G159" s="37">
+        <f>PRODUCT(C159:F159)</f>
+        <v>1</v>
+      </c>
+      <c r="H159" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="I159" s="37">
+        <v>80000</v>
+      </c>
+      <c r="J159" s="39">
+        <f>G159*I159</f>
+        <v>80000</v>
+      </c>
+      <c r="K159" s="34"/>
+    </row>
+    <row r="160" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="25"/>
+      <c r="B160" s="41"/>
+      <c r="C160" s="26"/>
+      <c r="D160" s="17"/>
+      <c r="E160" s="17"/>
+      <c r="F160" s="17"/>
+      <c r="G160" s="45"/>
+      <c r="H160" s="45"/>
+      <c r="I160" s="45"/>
+      <c r="J160" s="39"/>
+      <c r="K160" s="30"/>
+    </row>
+    <row r="161" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="12">
+        <v>16</v>
+      </c>
+      <c r="B161" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="C161" s="14">
+        <v>1</v>
+      </c>
+      <c r="D161" s="15"/>
+      <c r="E161" s="16"/>
+      <c r="F161" s="16"/>
+      <c r="G161" s="37">
+        <f t="shared" ref="G161" si="20">PRODUCT(C161:F161)</f>
+        <v>1</v>
+      </c>
+      <c r="H161" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="I161" s="19">
+        <v>1000</v>
+      </c>
+      <c r="J161" s="37">
+        <f>G161*I161</f>
+        <v>1000</v>
+      </c>
+      <c r="K161" s="16"/>
+      <c r="M161" s="21"/>
+      <c r="N161" s="21"/>
+    </row>
+    <row r="162" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="12"/>
+      <c r="B162" s="59"/>
+      <c r="C162" s="14"/>
+      <c r="D162" s="15"/>
+      <c r="E162" s="16"/>
+      <c r="F162" s="16"/>
+      <c r="G162" s="19"/>
+      <c r="H162" s="18"/>
+      <c r="I162" s="19"/>
+      <c r="J162" s="20"/>
+      <c r="K162" s="16"/>
+      <c r="M162" s="21"/>
+      <c r="N162" s="21"/>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A163" s="25"/>
+      <c r="B163" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="C163" s="63"/>
+      <c r="D163" s="64"/>
+      <c r="E163" s="64"/>
+      <c r="F163" s="64"/>
+      <c r="G163" s="20"/>
+      <c r="H163" s="20"/>
+      <c r="I163" s="20"/>
+      <c r="J163" s="20">
+        <f>SUM(J29:J161)</f>
+        <v>1443212.753161883</v>
+      </c>
+      <c r="K163" s="30"/>
+    </row>
+    <row r="165" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B165" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="C165" s="82">
+        <f>J163</f>
+        <v>1443212.753161883</v>
+      </c>
+      <c r="D165" s="82"/>
+      <c r="E165" s="82"/>
+      <c r="F165" s="65"/>
+      <c r="G165" s="66"/>
+      <c r="H165" s="65"/>
+      <c r="I165" s="67"/>
+      <c r="J165" s="68"/>
+      <c r="K165" s="69"/>
+    </row>
+    <row r="166" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B166" s="74" t="s">
+        <v>126</v>
+      </c>
+      <c r="C166" s="89">
+        <f>C165*0.13</f>
+        <v>187617.65791104481</v>
+      </c>
+      <c r="D166" s="89"/>
+      <c r="E166" s="89"/>
+    </row>
+    <row r="167" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B167" s="74" t="s">
+        <v>127</v>
+      </c>
+      <c r="C167" s="89">
+        <f>C165+C166</f>
+        <v>1630830.4110729278</v>
+      </c>
+      <c r="D167" s="89"/>
+      <c r="E167" s="89"/>
+    </row>
+    <row r="169" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B169" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="C169" s="76">
+        <f>J163</f>
+        <v>1443212.753161883</v>
+      </c>
+      <c r="D169" s="77"/>
+      <c r="E169" s="33">
+        <v>100</v>
+      </c>
+      <c r="F169" s="65"/>
+      <c r="G169" s="66"/>
+      <c r="H169" s="65"/>
+      <c r="I169" s="67"/>
+      <c r="J169" s="68"/>
+      <c r="K169" s="69"/>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B170" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="C170" s="80">
+        <v>1275000</v>
+      </c>
+      <c r="D170" s="81"/>
+      <c r="E170" s="33"/>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B171" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="C171" s="80">
+        <f>C170-C173-C174</f>
+        <v>1211250</v>
+      </c>
+      <c r="D171" s="81"/>
+      <c r="E171" s="33">
+        <f>C171/C169*100</f>
+        <v>83.927334853874854</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B172" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="C172" s="82">
+        <f>C169-C171</f>
+        <v>231962.75316188298</v>
+      </c>
+      <c r="D172" s="82"/>
+      <c r="E172" s="33">
+        <f>100-E171</f>
+        <v>16.072665146125146</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B173" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="C173" s="76">
+        <f>C170*0.03</f>
+        <v>38250</v>
+      </c>
+      <c r="D173" s="77"/>
+      <c r="E173" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B174" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="C174" s="76">
+        <f>C170*0.02</f>
+        <v>25500</v>
+      </c>
+      <c r="D174" s="77"/>
+      <c r="E174" s="33">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="C171:D171"/>
+    <mergeCell ref="C172:D172"/>
+    <mergeCell ref="C173:D173"/>
+    <mergeCell ref="C174:D174"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C165:E165"/>
+    <mergeCell ref="C166:E166"/>
+    <mergeCell ref="C167:E167"/>
+    <mergeCell ref="C169:D169"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="80" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter xml:space="preserve">&amp;LPrepared By:
+&amp;CChecked By:
+&amp;RApproved By:
+</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>